--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_3_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2001344.319464397</v>
+        <v>-2002041.839881027</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817932.5232506152</v>
+        <v>817932.5232506148</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681853</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>47.80859633505523</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="H2" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>80.17314072887086</v>
+        <v>62.66336173888641</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="H3" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>70.61650235398963</v>
       </c>
       <c r="S3" t="n">
-        <v>70.61650235398946</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.792435466032794</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.9792860368893</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>47.80859633505527</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>7.293863480540836</v>
@@ -911,7 +911,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.80859633505546</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="U5" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.17314072887086</v>
+        <v>70.61650235398963</v>
       </c>
       <c r="S6" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="U6" t="n">
-        <v>70.61650235398945</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.792435466033262</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.792435466032794</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="K7" t="n">
         <v>14.77440971783335</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
-        <v>196.6679945499175</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1148,10 +1148,10 @@
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>13.55696361942514</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -1221,13 +1221,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>137.6086601534844</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.90507490100101</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258.7311035953438</v>
+        <v>258.7311035953437</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>258.1327293592362</v>
+        <v>258.1327293592361</v>
       </c>
       <c r="F11" t="n">
-        <v>282.3085570844896</v>
+        <v>246.8194159712567</v>
       </c>
       <c r="G11" t="n">
-        <v>289.4858117321753</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>96.30039485141047</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>126.4617653984447</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>143.6635001395644</v>
+        <v>245.8762927351181</v>
       </c>
       <c r="Y11" t="n">
-        <v>261.7017653551846</v>
+        <v>261.7017653551845</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.38681921429361</v>
+        <v>40.3868192142935</v>
       </c>
       <c r="C12" t="n">
-        <v>46.04027753134977</v>
+        <v>46.04027753134966</v>
       </c>
       <c r="D12" t="n">
-        <v>21.12711717859435</v>
+        <v>21.12711717859423</v>
       </c>
       <c r="E12" t="n">
-        <v>31.04812731112261</v>
+        <v>31.0481273111225</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>18.52092568749796</v>
       </c>
       <c r="G12" t="n">
-        <v>10.83263441997311</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>224.6436725021343</v>
       </c>
       <c r="V12" t="n">
-        <v>106.9234246436039</v>
+        <v>205.5830947831147</v>
       </c>
       <c r="W12" t="n">
-        <v>223.6637104934589</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>79.47632321242693</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.68584502253481</v>
+        <v>78.68584502253469</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.09838509463259</v>
+        <v>55.09838509463248</v>
       </c>
       <c r="C13" t="n">
-        <v>42.35124653515112</v>
+        <v>42.35124653515101</v>
       </c>
       <c r="D13" t="n">
-        <v>24.02026011846814</v>
+        <v>24.02026011846803</v>
       </c>
       <c r="E13" t="n">
-        <v>21.98931777714796</v>
+        <v>21.98931777714785</v>
       </c>
       <c r="F13" t="n">
-        <v>21.17371501375328</v>
+        <v>21.17371501375317</v>
       </c>
       <c r="G13" t="n">
-        <v>42.73219157374984</v>
+        <v>42.73219157374973</v>
       </c>
       <c r="H13" t="n">
-        <v>35.1187205294088</v>
+        <v>35.11872052940868</v>
       </c>
       <c r="I13" t="n">
-        <v>23.59799588593815</v>
+        <v>23.59799588593804</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.66800591301799</v>
+        <v>40.66800591301788</v>
       </c>
       <c r="S13" t="n">
-        <v>94.37302446620289</v>
+        <v>94.37302446620278</v>
       </c>
       <c r="T13" t="n">
-        <v>102.6118618559629</v>
+        <v>102.6118618559628</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0575772153599</v>
+        <v>161.0575772153598</v>
       </c>
       <c r="V13" t="n">
-        <v>127.9510446708879</v>
+        <v>127.9510446708878</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7210228110024</v>
+        <v>161.1072704913642</v>
       </c>
       <c r="X13" t="n">
-        <v>101.155053536258</v>
+        <v>101.1550535362579</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.763367471717</v>
+        <v>91.37711979135858</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>258.7311035953437</v>
+        <v>142.4981338762769</v>
       </c>
       <c r="C14" t="n">
-        <v>241.9997892828913</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>231.6194263585471</v>
+        <v>231.619426358547</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>282.3085570844895</v>
       </c>
       <c r="G14" t="n">
         <v>289.4858117321751</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.13728303465112</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>225.5448106045033</v>
+        <v>225.5448106045032</v>
       </c>
       <c r="X14" t="n">
-        <v>245.8762927351181</v>
+        <v>245.876292735118</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.6402804030645</v>
+        <v>261.7017653551844</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.3868192142935</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1698,10 +1698,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>10.832634419973</v>
+        <v>10.83263441997294</v>
       </c>
       <c r="H15" t="n">
-        <v>33.70038782770799</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>33.7003878277087</v>
       </c>
       <c r="S15" t="n">
-        <v>165.1488250350689</v>
+        <v>40.16351863901755</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5551522218321</v>
+        <v>72.56984582578073</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6436725021343</v>
+        <v>99.65836610608287</v>
       </c>
       <c r="V15" t="n">
-        <v>106.9234246436038</v>
+        <v>106.9234246436037</v>
       </c>
       <c r="W15" t="n">
         <v>125.0040403539487</v>
       </c>
       <c r="X15" t="n">
-        <v>79.47632321242693</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>78.68584502253469</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.09838509463248</v>
+        <v>55.09838509463242</v>
       </c>
       <c r="C16" t="n">
-        <v>42.35124653515101</v>
+        <v>42.35124653515095</v>
       </c>
       <c r="D16" t="n">
-        <v>24.02026011846803</v>
+        <v>24.02026011846797</v>
       </c>
       <c r="E16" t="n">
-        <v>21.98931777714785</v>
+        <v>21.98931777714779</v>
       </c>
       <c r="F16" t="n">
-        <v>21.17371501375317</v>
+        <v>21.17371501375311</v>
       </c>
       <c r="G16" t="n">
-        <v>42.73219157374973</v>
+        <v>42.73219157374967</v>
       </c>
       <c r="H16" t="n">
-        <v>35.11872052940868</v>
+        <v>35.11872052940863</v>
       </c>
       <c r="I16" t="n">
-        <v>23.59799588593804</v>
+        <v>23.59799588593798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.66800591301788</v>
+        <v>40.66800591301782</v>
       </c>
       <c r="S16" t="n">
-        <v>94.37302446620279</v>
+        <v>94.37302446620272</v>
       </c>
       <c r="T16" t="n">
-        <v>102.6118618559628</v>
+        <v>102.6118618559627</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0575772153598</v>
+        <v>161.0575772153597</v>
       </c>
       <c r="V16" t="n">
         <v>127.9510446708878</v>
       </c>
       <c r="W16" t="n">
-        <v>158.721022811005</v>
+        <v>158.7210228110068</v>
       </c>
       <c r="X16" t="n">
         <v>101.1550535362579</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.76336747171689</v>
+        <v>93.76336747171683</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>193.1854168807647</v>
       </c>
       <c r="H17" t="n">
-        <v>112.9291744794084</v>
+        <v>112.9291744794074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.43615441375565</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.596168771787393</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>3.357971254672457</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>10.62302979219334</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>151.1370761691685</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2056,7 +2056,7 @@
         <v>6.311467004552312</v>
       </c>
       <c r="U19" t="n">
-        <v>64.75718236394931</v>
+        <v>197.9705449994788</v>
       </c>
       <c r="V19" t="n">
         <v>31.65064981947737</v>
@@ -2068,7 +2068,7 @@
         <v>4.854658684847465</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.2133626355296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>30.16137054703433</v>
+        <v>30.16137054703336</v>
       </c>
       <c r="V20" t="n">
         <v>107.2475202750576</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.596168771787393</v>
       </c>
       <c r="T21" t="n">
-        <v>3.596168771787393</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>3.357971254672457</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.2133626355296</v>
       </c>
       <c r="T22" t="n">
         <v>6.311467004552312</v>
       </c>
       <c r="U22" t="n">
-        <v>197.9705449994788</v>
+        <v>64.75718236394931</v>
       </c>
       <c r="V22" t="n">
         <v>31.65064981947737</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>211.4157696349381</v>
+        <v>6.954140026459065</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2460,7 +2460,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.2133626355296</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5248296400819</v>
+        <v>6.311467004552312</v>
       </c>
       <c r="U25" t="n">
         <v>64.75718236394931</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>55.3903267117217</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>79.43615441375565</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>47.90967004896984</v>
       </c>
       <c r="U27" t="n">
-        <v>74.99819032927198</v>
+        <v>209.8246714547494</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>234.0709278185329</v>
+        <v>234.0709278185328</v>
       </c>
       <c r="C29" t="n">
         <v>217.3396135060804</v>
       </c>
       <c r="D29" t="n">
-        <v>206.9592505817362</v>
+        <v>206.9592505817361</v>
       </c>
       <c r="E29" t="n">
-        <v>233.4725535824253</v>
+        <v>233.4725535824252</v>
       </c>
       <c r="F29" t="n">
         <v>257.6483813076786</v>
       </c>
       <c r="G29" t="n">
-        <v>264.8256359553643</v>
+        <v>264.8256359553642</v>
       </c>
       <c r="H29" t="n">
-        <v>184.569393554007</v>
+        <v>184.5693935540069</v>
       </c>
       <c r="I29" t="n">
-        <v>40.78826410252061</v>
+        <v>40.78826410252055</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.47710725784025</v>
+        <v>47.4771072578402</v>
       </c>
       <c r="T29" t="n">
-        <v>71.64021907459961</v>
+        <v>71.64021907459956</v>
       </c>
       <c r="U29" t="n">
-        <v>101.8015896216339</v>
+        <v>101.8015896216338</v>
       </c>
       <c r="V29" t="n">
-        <v>178.8877393496572</v>
+        <v>178.8877393496571</v>
       </c>
       <c r="W29" t="n">
-        <v>200.8846348276924</v>
+        <v>200.8846348276923</v>
       </c>
       <c r="X29" t="n">
-        <v>221.2161169583072</v>
+        <v>221.2161169583071</v>
       </c>
       <c r="Y29" t="n">
         <v>237.0415895783736</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>15.50334286220674</v>
+        <v>15.50334286220669</v>
       </c>
       <c r="T30" t="n">
-        <v>47.90967004896992</v>
+        <v>47.90967004896986</v>
       </c>
       <c r="U30" t="n">
         <v>209.8246714547494</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.43820931782162</v>
+        <v>30.43820931782156</v>
       </c>
       <c r="C31" t="n">
-        <v>17.69107075834015</v>
+        <v>17.69107075834009</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.07201579693887</v>
+        <v>18.07201579693881</v>
       </c>
       <c r="H31" t="n">
-        <v>10.45854475259783</v>
+        <v>10.45854475259777</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.00783013620702</v>
+        <v>16.00783013620696</v>
       </c>
       <c r="S31" t="n">
-        <v>69.71284868939192</v>
+        <v>69.71284868939186</v>
       </c>
       <c r="T31" t="n">
-        <v>77.95168607915191</v>
+        <v>77.95168607915186</v>
       </c>
       <c r="U31" t="n">
         <v>136.3974014385489</v>
       </c>
       <c r="V31" t="n">
-        <v>103.290868894077</v>
+        <v>103.2908688940769</v>
       </c>
       <c r="W31" t="n">
         <v>136.4470947145533</v>
       </c>
       <c r="X31" t="n">
-        <v>76.49487775944706</v>
+        <v>76.49487775944701</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.10319169490603</v>
+        <v>69.10319169490597</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>166.1827439960551</v>
       </c>
       <c r="D32" t="n">
-        <v>155.8023810717109</v>
+        <v>155.8023810717108</v>
       </c>
       <c r="E32" t="n">
-        <v>182.3156840724</v>
+        <v>182.3156840723999</v>
       </c>
       <c r="F32" t="n">
         <v>206.4915117976533</v>
       </c>
       <c r="G32" t="n">
-        <v>213.668766445339</v>
+        <v>213.6687664453389</v>
       </c>
       <c r="H32" t="n">
         <v>133.4125240439816</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.4833495645743</v>
+        <v>20.48334956457424</v>
       </c>
       <c r="U32" t="n">
-        <v>50.64472011160856</v>
+        <v>50.64472011160851</v>
       </c>
       <c r="V32" t="n">
-        <v>127.7308698396319</v>
+        <v>127.7308698396318</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7277653176671</v>
+        <v>149.727765317667</v>
       </c>
       <c r="X32" t="n">
-        <v>170.0592474482819</v>
+        <v>170.0592474482818</v>
       </c>
       <c r="Y32" t="n">
         <v>185.8847200683483</v>
@@ -3117,7 +3117,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>51.84121132484714</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5551522218321</v>
+        <v>26.95141891227154</v>
       </c>
       <c r="U33" t="n">
-        <v>23.84132081924675</v>
+        <v>224.6436725021343</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.55597917936662</v>
+        <v>18.55597917936656</v>
       </c>
       <c r="T34" t="n">
-        <v>26.79481656912661</v>
+        <v>26.79481656912655</v>
       </c>
       <c r="U34" t="n">
-        <v>85.24053192852361</v>
+        <v>85.24053192852355</v>
       </c>
       <c r="V34" t="n">
-        <v>52.13399938405166</v>
+        <v>52.13399938405161</v>
       </c>
       <c r="W34" t="n">
-        <v>85.29022520452804</v>
+        <v>85.29022520452799</v>
       </c>
       <c r="X34" t="n">
-        <v>25.33800824942176</v>
+        <v>25.3380082494217</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.94632218488073</v>
+        <v>17.94632218488067</v>
       </c>
     </row>
     <row r="35">
@@ -3354,10 +3354,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.8179408160243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.95141891227222</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>137.419743549901</v>
+        <v>224.6436725021343</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3506,7 +3506,7 @@
         <v>166.1827439960552</v>
       </c>
       <c r="D38" t="n">
-        <v>155.8023810717109</v>
+        <v>155.802381071711</v>
       </c>
       <c r="E38" t="n">
         <v>182.3156840724</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.48334956457433</v>
+        <v>20.48334956457435</v>
       </c>
       <c r="U38" t="n">
-        <v>50.64472011160859</v>
+        <v>50.64472011160862</v>
       </c>
       <c r="V38" t="n">
         <v>127.7308698396319</v>
@@ -3566,10 +3566,10 @@
         <v>149.7277653176671</v>
       </c>
       <c r="X38" t="n">
-        <v>170.0592474482819</v>
+        <v>170.059247448282</v>
       </c>
       <c r="Y38" t="n">
-        <v>185.8847200683483</v>
+        <v>185.8847200683484</v>
       </c>
     </row>
     <row r="39">
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.5940118637909</v>
       </c>
       <c r="S39" t="n">
-        <v>51.84121132484646</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5551522218321</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>23.84132081924678</v>
+        <v>224.6436725021343</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.55597917936664</v>
+        <v>18.55597917936667</v>
       </c>
       <c r="T40" t="n">
-        <v>26.79481656912664</v>
+        <v>26.79481656912667</v>
       </c>
       <c r="U40" t="n">
-        <v>85.24053192852364</v>
+        <v>85.24053192852367</v>
       </c>
       <c r="V40" t="n">
-        <v>52.13399938405169</v>
+        <v>52.13399938405172</v>
       </c>
       <c r="W40" t="n">
-        <v>85.29022520452807</v>
+        <v>85.2902252045281</v>
       </c>
       <c r="X40" t="n">
-        <v>25.33800824942179</v>
+        <v>25.33800824942182</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.94632218488076</v>
+        <v>17.94632218488078</v>
       </c>
     </row>
     <row r="41">
@@ -3831,7 +3831,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>48.59401186379143</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6436725021343</v>
+        <v>137.4197435499015</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.55597917936665</v>
+        <v>18.55597917936664</v>
       </c>
       <c r="T43" t="n">
         <v>26.79481656912664</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>20.48334956457439</v>
+        <v>20.48334956457438</v>
       </c>
       <c r="U44" t="n">
-        <v>50.64472011160866</v>
+        <v>50.64472011160865</v>
       </c>
       <c r="V44" t="n">
         <v>127.7308698396319</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>48.59401186379099</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.84121132484692</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5551522218321</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>23.84132081924684</v>
+        <v>224.6436725021343</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.55597917936671</v>
+        <v>18.5559791793667</v>
       </c>
       <c r="T46" t="n">
         <v>26.7948165691267</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.6925629154834</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="C2" t="n">
-        <v>320.6925629154834</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="D2" t="n">
-        <v>272.4010514659327</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="E2" t="n">
-        <v>191.4180810327298</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="F2" t="n">
-        <v>184.0505421634966</v>
+        <v>151.359083179845</v>
       </c>
       <c r="G2" t="n">
-        <v>169.0457286242735</v>
+        <v>70.37611274664184</v>
       </c>
       <c r="H2" t="n">
-        <v>88.06275819107056</v>
+        <v>70.37611274664184</v>
       </c>
       <c r="I2" t="n">
-        <v>7.079787757867665</v>
+        <v>7.079787757867683</v>
       </c>
       <c r="J2" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="K2" t="n">
-        <v>85.78526057989181</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="L2" t="n">
-        <v>85.78526057989181</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="M2" t="n">
-        <v>85.78526057989181</v>
+        <v>78.55938771861176</v>
       </c>
       <c r="N2" t="n">
-        <v>157.9307970401937</v>
+        <v>157.9307970401941</v>
       </c>
       <c r="O2" t="n">
-        <v>237.3022063617758</v>
+        <v>237.3022063617765</v>
       </c>
       <c r="P2" t="n">
-        <v>316.673615683358</v>
+        <v>316.6736156833589</v>
       </c>
       <c r="Q2" t="n">
-        <v>320.6925629154834</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="R2" t="n">
-        <v>320.6925629154834</v>
+        <v>239.7095924822812</v>
       </c>
       <c r="S2" t="n">
-        <v>320.6925629154834</v>
+        <v>239.7095924822812</v>
       </c>
       <c r="T2" t="n">
-        <v>320.6925629154834</v>
+        <v>239.7095924822812</v>
       </c>
       <c r="U2" t="n">
-        <v>320.6925629154834</v>
+        <v>239.7095924822812</v>
       </c>
       <c r="V2" t="n">
-        <v>320.6925629154834</v>
+        <v>239.7095924822812</v>
       </c>
       <c r="W2" t="n">
-        <v>320.6925629154834</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="X2" t="n">
-        <v>320.6925629154834</v>
+        <v>158.7266220490781</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.6925629154834</v>
+        <v>158.7266220490781</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="C3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="D3" t="n">
-        <v>168.3797921247154</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="E3" t="n">
-        <v>168.3797921247154</v>
+        <v>87.39682169151281</v>
       </c>
       <c r="F3" t="n">
-        <v>168.3797921247154</v>
+        <v>87.39682169151281</v>
       </c>
       <c r="G3" t="n">
-        <v>168.3797921247154</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="H3" t="n">
-        <v>87.39682169151256</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="I3" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="J3" t="n">
-        <v>13.80716210479457</v>
+        <v>13.80716210479459</v>
       </c>
       <c r="K3" t="n">
-        <v>93.17857142637672</v>
+        <v>13.80716210479459</v>
       </c>
       <c r="L3" t="n">
-        <v>93.17857142637672</v>
+        <v>13.80716210479459</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5499807479589</v>
+        <v>82.57833495073723</v>
       </c>
       <c r="N3" t="n">
-        <v>251.921390069541</v>
+        <v>161.9497442723196</v>
       </c>
       <c r="O3" t="n">
-        <v>320.6925629154834</v>
+        <v>241.321153593902</v>
       </c>
       <c r="P3" t="n">
-        <v>320.6925629154834</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="Q3" t="n">
-        <v>320.6925629154834</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="R3" t="n">
-        <v>320.6925629154834</v>
+        <v>249.3627625579191</v>
       </c>
       <c r="S3" t="n">
-        <v>249.3627625579183</v>
+        <v>249.3627625579191</v>
       </c>
       <c r="T3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="U3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="V3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="W3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="X3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="Y3" t="n">
-        <v>249.3627625579183</v>
+        <v>168.3797921247159</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="C4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="D4" t="n">
-        <v>6.413851258309669</v>
+        <v>183.3034383043456</v>
       </c>
       <c r="E4" t="n">
-        <v>6.413851258309669</v>
+        <v>102.3204678711425</v>
       </c>
       <c r="F4" t="n">
-        <v>6.413851258309669</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="G4" t="n">
-        <v>6.413851258309669</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="H4" t="n">
-        <v>6.413851258309669</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="I4" t="n">
-        <v>6.413851258309669</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="J4" t="n">
-        <v>6.413851258309669</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="K4" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="L4" t="n">
-        <v>43.50037018502886</v>
+        <v>43.50037018502888</v>
       </c>
       <c r="M4" t="n">
-        <v>93.19580410196835</v>
+        <v>93.19580410196836</v>
       </c>
       <c r="N4" t="n">
         <v>146.8508535699599</v>
@@ -4507,31 +4507,31 @@
         <v>187.1341811993282</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.5678176883704</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="R4" t="n">
-        <v>25.58484725516755</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="S4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="T4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="U4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="V4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="W4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="X4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.413851258309669</v>
+        <v>187.1341811993282</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.7266220490777</v>
+        <v>110.4351105995271</v>
       </c>
       <c r="C5" t="n">
-        <v>158.7266220490777</v>
+        <v>29.45214016632401</v>
       </c>
       <c r="D5" t="n">
-        <v>158.7266220490777</v>
+        <v>29.45214016632401</v>
       </c>
       <c r="E5" t="n">
-        <v>110.4351105995269</v>
+        <v>29.45214016632401</v>
       </c>
       <c r="F5" t="n">
-        <v>103.0675717302937</v>
+        <v>22.08460129709084</v>
       </c>
       <c r="G5" t="n">
-        <v>88.06275819107056</v>
+        <v>7.079787757867683</v>
       </c>
       <c r="H5" t="n">
-        <v>7.079787757867665</v>
+        <v>7.079787757867683</v>
       </c>
       <c r="I5" t="n">
-        <v>7.079787757867665</v>
+        <v>7.079787757867683</v>
       </c>
       <c r="J5" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="K5" t="n">
-        <v>6.413851258309669</v>
+        <v>85.78526057989207</v>
       </c>
       <c r="L5" t="n">
-        <v>85.78526057989181</v>
+        <v>165.1566699014745</v>
       </c>
       <c r="M5" t="n">
-        <v>165.1566699014739</v>
+        <v>165.1566699014745</v>
       </c>
       <c r="N5" t="n">
-        <v>244.5280792230561</v>
+        <v>165.1566699014745</v>
       </c>
       <c r="O5" t="n">
-        <v>316.673615683358</v>
+        <v>244.5280792230568</v>
       </c>
       <c r="P5" t="n">
-        <v>316.673615683358</v>
+        <v>316.6736156833589</v>
       </c>
       <c r="Q5" t="n">
-        <v>320.6925629154834</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="R5" t="n">
-        <v>320.6925629154834</v>
+        <v>272.4010514659334</v>
       </c>
       <c r="S5" t="n">
-        <v>320.6925629154834</v>
+        <v>272.4010514659334</v>
       </c>
       <c r="T5" t="n">
-        <v>239.7095924822806</v>
+        <v>191.4180810327302</v>
       </c>
       <c r="U5" t="n">
-        <v>158.7266220490777</v>
+        <v>191.4180810327302</v>
       </c>
       <c r="V5" t="n">
-        <v>158.7266220490777</v>
+        <v>191.4180810327302</v>
       </c>
       <c r="W5" t="n">
-        <v>158.7266220490777</v>
+        <v>191.4180810327302</v>
       </c>
       <c r="X5" t="n">
-        <v>158.7266220490777</v>
+        <v>110.4351105995271</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.7266220490777</v>
+        <v>110.4351105995271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="C6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="D6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="E6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="F6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="G6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="H6" t="n">
-        <v>6.413851258309669</v>
+        <v>87.39682169151281</v>
       </c>
       <c r="I6" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="J6" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="K6" t="n">
-        <v>82.578334950737</v>
+        <v>82.57833495073723</v>
       </c>
       <c r="L6" t="n">
-        <v>82.578334950737</v>
+        <v>161.9497442723196</v>
       </c>
       <c r="M6" t="n">
-        <v>82.578334950737</v>
+        <v>241.321153593902</v>
       </c>
       <c r="N6" t="n">
-        <v>82.578334950737</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="O6" t="n">
-        <v>161.9497442723192</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="P6" t="n">
-        <v>241.3211535939013</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.6925629154834</v>
+        <v>320.6925629154844</v>
       </c>
       <c r="R6" t="n">
-        <v>239.7095924822806</v>
+        <v>249.3627625579191</v>
       </c>
       <c r="S6" t="n">
-        <v>158.7266220490777</v>
+        <v>249.3627625579191</v>
       </c>
       <c r="T6" t="n">
-        <v>77.74365161587477</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="U6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="V6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="W6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="X6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.413851258309669</v>
+        <v>168.3797921247159</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.1512107661253</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="C7" t="n">
-        <v>25.16824033292241</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="D7" t="n">
-        <v>21.33749743793932</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="E7" t="n">
-        <v>21.33749743793932</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="F7" t="n">
-        <v>21.33749743793932</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="G7" t="n">
-        <v>21.33749743793932</v>
+        <v>187.1341811993282</v>
       </c>
       <c r="H7" t="n">
-        <v>21.33749743793932</v>
+        <v>183.3034383043456</v>
       </c>
       <c r="I7" t="n">
-        <v>21.33749743793932</v>
+        <v>102.3204678711425</v>
       </c>
       <c r="J7" t="n">
-        <v>21.33749743793932</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="K7" t="n">
-        <v>6.413851258309669</v>
+        <v>6.413851258309688</v>
       </c>
       <c r="L7" t="n">
-        <v>43.50037018502886</v>
+        <v>43.50037018502888</v>
       </c>
       <c r="M7" t="n">
-        <v>93.19580410196835</v>
+        <v>93.19580410196836</v>
       </c>
       <c r="N7" t="n">
         <v>146.8508535699599</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>520.6898842948577</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C8" t="n">
-        <v>520.6898842948577</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D8" t="n">
-        <v>322.0353443454461</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>258.6046379468661</v>
       </c>
       <c r="G8" t="n">
-        <v>22.60864108688619</v>
+        <v>243.5998244076429</v>
       </c>
       <c r="H8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
         <v>22.60864108688619</v>
@@ -4826,28 +4826,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>520.6898842948577</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>893.8249258195958</v>
+        <v>638.8923019233937</v>
       </c>
       <c r="C9" t="n">
-        <v>721.0718107414129</v>
+        <v>466.1391868452109</v>
       </c>
       <c r="D9" t="n">
-        <v>573.4835041003568</v>
+        <v>318.5508802041547</v>
       </c>
       <c r="E9" t="n">
-        <v>415.8739751032115</v>
+        <v>160.9413512070094</v>
       </c>
       <c r="F9" t="n">
-        <v>270.9181851198283</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
         <v>21.9427045873282</v>
@@ -4881,16 +4881,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>409.2622680873972</v>
+        <v>87.60320201771924</v>
       </c>
       <c r="M9" t="n">
-        <v>409.2622680873972</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
         <v>630.6851405540922</v>
@@ -4920,13 +4920,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="Y9" t="n">
-        <v>1060.867476941156</v>
+        <v>638.8923019233937</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>191.5281479510737</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
         <v>21.9427045873282</v>
@@ -4984,28 +4984,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>869.1084575940044</v>
+        <v>540.8509294673293</v>
       </c>
       <c r="C11" t="n">
-        <v>869.1084575940044</v>
+        <v>540.8509294673293</v>
       </c>
       <c r="D11" t="n">
-        <v>869.1084575940044</v>
+        <v>540.8509294673293</v>
       </c>
       <c r="E11" t="n">
-        <v>608.3683269281091</v>
+        <v>280.1107988014342</v>
       </c>
       <c r="F11" t="n">
-        <v>323.2081682569075</v>
+        <v>30.79825741632641</v>
       </c>
       <c r="G11" t="n">
         <v>30.79825741632641</v>
@@ -5042,7 +5042,7 @@
         <v>62.38154018136606</v>
       </c>
       <c r="K11" t="n">
-        <v>231.9932866562998</v>
+        <v>231.9932866562999</v>
       </c>
       <c r="L11" t="n">
         <v>494.3807343781658</v>
@@ -5069,22 +5069,22 @@
         <v>1539.91287081632</v>
       </c>
       <c r="T11" t="n">
-        <v>1539.91287081632</v>
+        <v>1442.639744703785</v>
       </c>
       <c r="U11" t="n">
-        <v>1539.91287081632</v>
+        <v>1314.900587735659</v>
       </c>
       <c r="V11" t="n">
-        <v>1539.91287081632</v>
+        <v>1314.900587735659</v>
       </c>
       <c r="W11" t="n">
-        <v>1539.91287081632</v>
+        <v>1314.900587735659</v>
       </c>
       <c r="X11" t="n">
-        <v>1394.7982242107</v>
+        <v>1066.540696084024</v>
       </c>
       <c r="Y11" t="n">
-        <v>1130.45300668021</v>
+        <v>802.1954785535349</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>285.9037003704569</v>
+        <v>285.9037003704564</v>
       </c>
       <c r="C12" t="n">
-        <v>239.3983695307096</v>
+        <v>239.3983695307093</v>
       </c>
       <c r="D12" t="n">
-        <v>218.0578471280891</v>
+        <v>218.0578471280888</v>
       </c>
       <c r="E12" t="n">
-        <v>186.6961023693794</v>
+        <v>186.6961023693792</v>
       </c>
       <c r="F12" t="n">
-        <v>41.74031238599622</v>
+        <v>167.9880966244318</v>
       </c>
       <c r="G12" t="n">
         <v>30.79825741632641</v>
@@ -5127,16 +5127,16 @@
         <v>521.6495632829302</v>
       </c>
       <c r="M12" t="n">
-        <v>879.1882840400153</v>
+        <v>902.7779988099695</v>
       </c>
       <c r="N12" t="n">
-        <v>879.1882840400153</v>
+        <v>986.3068849291199</v>
       </c>
       <c r="O12" t="n">
-        <v>1195.418324335751</v>
+        <v>1302.536925224855</v>
       </c>
       <c r="P12" t="n">
-        <v>1432.794269927216</v>
+        <v>1539.91287081632</v>
       </c>
       <c r="Q12" t="n">
         <v>1539.91287081632</v>
@@ -5154,16 +5154,16 @@
         <v>946.6324165142644</v>
       </c>
       <c r="V12" t="n">
-        <v>838.6289572783008</v>
+        <v>738.9727248141485</v>
       </c>
       <c r="W12" t="n">
-        <v>612.7060173859181</v>
+        <v>486.4582331474817</v>
       </c>
       <c r="X12" t="n">
-        <v>406.1791187914957</v>
+        <v>406.1791187914949</v>
       </c>
       <c r="Y12" t="n">
-        <v>326.6984672535817</v>
+        <v>326.6984672535811</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.9128507836165</v>
+        <v>243.9128507836158</v>
       </c>
       <c r="C13" t="n">
-        <v>201.1338138794235</v>
+        <v>201.1338138794229</v>
       </c>
       <c r="D13" t="n">
-        <v>176.8709248708698</v>
+        <v>176.8709248708693</v>
       </c>
       <c r="E13" t="n">
-        <v>154.6594927727406</v>
+        <v>154.6594927727402</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2719018497575</v>
+        <v>133.2719018497572</v>
       </c>
       <c r="G13" t="n">
-        <v>90.10807197728292</v>
+        <v>90.10807197728268</v>
       </c>
       <c r="H13" t="n">
-        <v>54.63461689707202</v>
+        <v>54.63461689707189</v>
       </c>
       <c r="I13" t="n">
         <v>30.79825741632641</v>
       </c>
       <c r="J13" t="n">
-        <v>78.62841685468393</v>
+        <v>78.62841685468419</v>
       </c>
       <c r="K13" t="n">
-        <v>207.5311068206312</v>
+        <v>207.5311068206315</v>
       </c>
       <c r="L13" t="n">
-        <v>393.6824591631877</v>
+        <v>393.6824591631882</v>
       </c>
       <c r="M13" t="n">
-        <v>593.8196262693808</v>
+        <v>593.8196262693815</v>
       </c>
       <c r="N13" t="n">
-        <v>797.2813932830932</v>
+        <v>797.281393283094</v>
       </c>
       <c r="O13" t="n">
-        <v>979.3204048225348</v>
+        <v>979.3204048225357</v>
       </c>
       <c r="P13" t="n">
-        <v>1129.722143057642</v>
+        <v>1129.722143057643</v>
       </c>
       <c r="Q13" t="n">
-        <v>1188.760672031133</v>
+        <v>1188.760672031134</v>
       </c>
       <c r="R13" t="n">
-        <v>1147.6818781796</v>
+        <v>1147.681878179601</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.355590840001</v>
+        <v>1052.355590840002</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7072455309476</v>
+        <v>948.707245530949</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0228241012913</v>
+        <v>786.0228241012935</v>
       </c>
       <c r="V13" t="n">
-        <v>656.779344635748</v>
+        <v>656.7793446357502</v>
       </c>
       <c r="W13" t="n">
-        <v>496.455079170089</v>
+        <v>494.0447279778066</v>
       </c>
       <c r="X13" t="n">
-        <v>394.278257416293</v>
+        <v>391.8679062240108</v>
       </c>
       <c r="Y13" t="n">
-        <v>299.5677852226395</v>
+        <v>299.5677852226385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805.4252966203539</v>
+        <v>846.1412236926749</v>
       </c>
       <c r="C14" t="n">
-        <v>560.9810650214738</v>
+        <v>846.1412236926749</v>
       </c>
       <c r="D14" t="n">
-        <v>327.0220484976886</v>
+        <v>612.18220716889</v>
       </c>
       <c r="E14" t="n">
-        <v>327.0220484976886</v>
+        <v>612.18220716889</v>
       </c>
       <c r="F14" t="n">
         <v>327.0220484976886</v>
@@ -5276,52 +5276,52 @@
         <v>34.6121376571077</v>
       </c>
       <c r="J14" t="n">
-        <v>129.3400988883392</v>
+        <v>66.19542042214719</v>
       </c>
       <c r="K14" t="n">
-        <v>422.6872986953638</v>
+        <v>291.7904161606232</v>
       </c>
       <c r="L14" t="n">
-        <v>685.0747464172298</v>
+        <v>554.1778638824892</v>
       </c>
       <c r="M14" t="n">
-        <v>992.2436325144831</v>
+        <v>861.3467499797425</v>
       </c>
       <c r="N14" t="n">
-        <v>1288.865657331704</v>
+        <v>1281.704228129054</v>
       </c>
       <c r="O14" t="n">
-        <v>1522.82907279347</v>
+        <v>1515.66764359082</v>
       </c>
       <c r="P14" t="n">
-        <v>1685.572641787162</v>
+        <v>1678.411212584512</v>
       </c>
       <c r="Q14" t="n">
-        <v>1730.606882855385</v>
+        <v>1723.445453652735</v>
       </c>
       <c r="R14" t="n">
         <v>1730.606882855385</v>
       </c>
       <c r="S14" t="n">
-        <v>1657.740940396141</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="T14" t="n">
-        <v>1657.740940396141</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="U14" t="n">
-        <v>1657.740940396141</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="V14" t="n">
-        <v>1657.740940396141</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="W14" t="n">
-        <v>1429.917899381491</v>
+        <v>1502.783841840735</v>
       </c>
       <c r="X14" t="n">
-        <v>1181.558007729857</v>
+        <v>1254.423950189101</v>
       </c>
       <c r="Y14" t="n">
-        <v>1066.76984570656</v>
+        <v>990.0787326586114</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>702.5017291121085</v>
+        <v>668.4609333265447</v>
       </c>
       <c r="C15" t="n">
-        <v>529.7486140339256</v>
+        <v>495.7078182483619</v>
       </c>
       <c r="D15" t="n">
-        <v>382.1603073928695</v>
+        <v>348.1195116073058</v>
       </c>
       <c r="E15" t="n">
-        <v>224.5507783957242</v>
+        <v>190.5099826101605</v>
       </c>
       <c r="F15" t="n">
-        <v>79.59498841234102</v>
+        <v>45.55419262677733</v>
       </c>
       <c r="G15" t="n">
-        <v>68.65293344267133</v>
+        <v>34.6121376571077</v>
       </c>
       <c r="H15" t="n">
         <v>34.6121376571077</v>
@@ -5358,49 +5358,49 @@
         <v>34.6121376571077</v>
       </c>
       <c r="K15" t="n">
-        <v>34.6121376571077</v>
+        <v>206.6691364719285</v>
       </c>
       <c r="L15" t="n">
-        <v>326.8136126792995</v>
+        <v>498.8706114941203</v>
       </c>
       <c r="M15" t="n">
-        <v>720.5991458517283</v>
+        <v>892.6561446665492</v>
       </c>
       <c r="N15" t="n">
-        <v>1140.205742345239</v>
+        <v>1312.26274116006</v>
       </c>
       <c r="O15" t="n">
-        <v>1456.435782640974</v>
+        <v>1493.230937263919</v>
       </c>
       <c r="P15" t="n">
-        <v>1693.81172823244</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="Q15" t="n">
         <v>1730.606882855385</v>
       </c>
       <c r="R15" t="n">
-        <v>1730.606882855385</v>
+        <v>1696.56608706982</v>
       </c>
       <c r="S15" t="n">
-        <v>1563.789887870466</v>
+        <v>1655.996876323338</v>
       </c>
       <c r="T15" t="n">
-        <v>1364.239229060535</v>
+        <v>1582.694001751842</v>
       </c>
       <c r="U15" t="n">
-        <v>1137.326428553328</v>
+        <v>1482.028985483071</v>
       </c>
       <c r="V15" t="n">
-        <v>1029.322969317365</v>
+        <v>1374.025526247108</v>
       </c>
       <c r="W15" t="n">
-        <v>903.056261889134</v>
+        <v>1247.758818818877</v>
       </c>
       <c r="X15" t="n">
-        <v>822.7771475331472</v>
+        <v>1041.231920224455</v>
       </c>
       <c r="Y15" t="n">
-        <v>743.2964959952333</v>
+        <v>835.5034844481052</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.7267310243971</v>
+        <v>247.7267310243966</v>
       </c>
       <c r="C16" t="n">
-        <v>204.9476941202042</v>
+        <v>204.9476941202037</v>
       </c>
       <c r="D16" t="n">
-        <v>180.6848051116506</v>
+        <v>180.6848051116502</v>
       </c>
       <c r="E16" t="n">
-        <v>158.4733730135215</v>
+        <v>158.4733730135211</v>
       </c>
       <c r="F16" t="n">
-        <v>137.0857820905385</v>
+        <v>137.0857820905381</v>
       </c>
       <c r="G16" t="n">
-        <v>93.92195221806398</v>
+        <v>93.92195221806386</v>
       </c>
       <c r="H16" t="n">
-        <v>58.44849713785319</v>
+        <v>58.44849713785313</v>
       </c>
       <c r="I16" t="n">
         <v>34.6121376571077</v>
       </c>
       <c r="J16" t="n">
-        <v>82.44229709546548</v>
+        <v>82.44229709546552</v>
       </c>
       <c r="K16" t="n">
-        <v>211.3449870614128</v>
+        <v>211.344987061413</v>
       </c>
       <c r="L16" t="n">
-        <v>397.4963394039695</v>
+        <v>397.4963394039696</v>
       </c>
       <c r="M16" t="n">
-        <v>597.6335065101628</v>
+        <v>597.633506510163</v>
       </c>
       <c r="N16" t="n">
-        <v>801.0952735238752</v>
+        <v>801.0952735238754</v>
       </c>
       <c r="O16" t="n">
-        <v>983.1342850633171</v>
+        <v>983.1342850633173</v>
       </c>
       <c r="P16" t="n">
         <v>1133.536023298424</v>
@@ -5458,28 +5458,28 @@
         <v>1192.574552271916</v>
       </c>
       <c r="R16" t="n">
-        <v>1151.495758420382</v>
+        <v>1151.495758420383</v>
       </c>
       <c r="S16" t="n">
         <v>1056.169471080784</v>
       </c>
       <c r="T16" t="n">
-        <v>952.5211257717302</v>
+        <v>952.5211257717309</v>
       </c>
       <c r="U16" t="n">
-        <v>789.836704342074</v>
+        <v>789.8367043420748</v>
       </c>
       <c r="V16" t="n">
-        <v>660.5932248765307</v>
+        <v>660.5932248765316</v>
       </c>
       <c r="W16" t="n">
-        <v>500.2689594108691</v>
+        <v>500.2689594108682</v>
       </c>
       <c r="X16" t="n">
-        <v>398.0921376570732</v>
+        <v>398.0921376570726</v>
       </c>
       <c r="Y16" t="n">
-        <v>303.3816654634198</v>
+        <v>303.3816654634192</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>979.0298286062944</v>
+        <v>979.0298286062939</v>
       </c>
       <c r="C17" t="n">
         <v>831.8587231199499</v>
@@ -5504,7 +5504,7 @@
         <v>343.8187955966759</v>
       </c>
       <c r="G17" t="n">
-        <v>148.6820108686313</v>
+        <v>148.6820108686303</v>
       </c>
       <c r="H17" t="n">
         <v>34.6121376571077</v>
@@ -5516,16 +5516,16 @@
         <v>96.73885584450539</v>
       </c>
       <c r="K17" t="n">
-        <v>296.2669978912261</v>
+        <v>266.3506023194392</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6544456130921</v>
+        <v>528.7380500413051</v>
       </c>
       <c r="M17" t="n">
-        <v>865.8233317103454</v>
+        <v>835.9069361385584</v>
       </c>
       <c r="N17" t="n">
-        <v>1162.445356527566</v>
+        <v>1132.528960955779</v>
       </c>
       <c r="O17" t="n">
         <v>1396.408771989333</v>
@@ -5552,10 +5552,10 @@
         <v>1591.81002343913</v>
       </c>
       <c r="W17" t="n">
-        <v>1461.260108537017</v>
+        <v>1461.260108537016</v>
       </c>
       <c r="X17" t="n">
-        <v>1310.173342997918</v>
+        <v>1310.173342997917</v>
       </c>
       <c r="Y17" t="n">
         <v>1143.101251579964</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.5188783568751</v>
+        <v>984.5230607811995</v>
       </c>
       <c r="C18" t="n">
-        <v>484.7657632786923</v>
+        <v>811.7699457030167</v>
       </c>
       <c r="D18" t="n">
-        <v>337.1774566376362</v>
+        <v>664.1816390619605</v>
       </c>
       <c r="E18" t="n">
-        <v>179.5679276404908</v>
+        <v>506.5721100648152</v>
       </c>
       <c r="F18" t="n">
-        <v>34.6121376571077</v>
+        <v>361.616320081432</v>
       </c>
       <c r="G18" t="n">
-        <v>34.6121376571077</v>
+        <v>224.4264808733266</v>
       </c>
       <c r="H18" t="n">
-        <v>34.6121376571077</v>
+        <v>114.8506774689821</v>
       </c>
       <c r="I18" t="n">
         <v>34.6121376571077</v>
@@ -5595,22 +5595,22 @@
         <v>34.6121376571077</v>
       </c>
       <c r="K18" t="n">
-        <v>71.40729228005256</v>
+        <v>34.6121376571077</v>
       </c>
       <c r="L18" t="n">
-        <v>363.6087673022444</v>
+        <v>326.8136126792995</v>
       </c>
       <c r="M18" t="n">
-        <v>757.3943004746732</v>
+        <v>720.5991458517283</v>
       </c>
       <c r="N18" t="n">
-        <v>1177.000896968184</v>
+        <v>1140.205742345239</v>
       </c>
       <c r="O18" t="n">
-        <v>1493.230937263919</v>
+        <v>1456.435782640974</v>
       </c>
       <c r="P18" t="n">
-        <v>1730.606882855385</v>
+        <v>1693.81172823244</v>
       </c>
       <c r="Q18" t="n">
         <v>1730.606882855385</v>
@@ -5622,22 +5622,22 @@
         <v>1730.606882855385</v>
       </c>
       <c r="T18" t="n">
-        <v>1726.974389146508</v>
+        <v>1730.606882855385</v>
       </c>
       <c r="U18" t="n">
-        <v>1723.582498990274</v>
+        <v>1727.21499269915</v>
       </c>
       <c r="V18" t="n">
-        <v>1489.331255515875</v>
+        <v>1716.484659575722</v>
       </c>
       <c r="W18" t="n">
-        <v>1236.816763849208</v>
+        <v>1563.820946273532</v>
       </c>
       <c r="X18" t="n">
-        <v>1030.289865254785</v>
+        <v>1357.294047679109</v>
       </c>
       <c r="Y18" t="n">
-        <v>824.5614294784356</v>
+        <v>1151.56561190276</v>
       </c>
     </row>
     <row r="19">
@@ -5704,16 +5704,16 @@
         <v>336.9179246710041</v>
       </c>
       <c r="U19" t="n">
-        <v>271.5066293538836</v>
+        <v>136.947677196783</v>
       </c>
       <c r="V19" t="n">
-        <v>239.5362760008762</v>
+        <v>104.9773238437756</v>
       </c>
       <c r="W19" t="n">
-        <v>174.0747854554683</v>
+        <v>39.51583329836776</v>
       </c>
       <c r="X19" t="n">
-        <v>169.1710898142083</v>
+        <v>34.6121376571077</v>
       </c>
       <c r="Y19" t="n">
         <v>34.6121376571077</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>979.0298286062939</v>
+        <v>979.0298286062948</v>
       </c>
       <c r="C20" t="n">
-        <v>831.8587231199494</v>
+        <v>831.8587231199504</v>
       </c>
       <c r="D20" t="n">
-        <v>695.1728327087004</v>
+        <v>695.1728327087013</v>
       </c>
       <c r="E20" t="n">
-        <v>531.7058281553411</v>
+        <v>531.705828155342</v>
       </c>
       <c r="F20" t="n">
-        <v>343.8187955966754</v>
+        <v>343.8187955966764</v>
       </c>
       <c r="G20" t="n">
         <v>148.6820108686303</v>
@@ -5750,19 +5750,19 @@
         <v>65.1555730794659</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73885584450539</v>
+        <v>126.6552514162924</v>
       </c>
       <c r="K20" t="n">
-        <v>266.3506023194392</v>
+        <v>296.2669978912261</v>
       </c>
       <c r="L20" t="n">
-        <v>528.7380500413051</v>
+        <v>558.6544456130921</v>
       </c>
       <c r="M20" t="n">
-        <v>835.9069361385584</v>
+        <v>865.8233317103454</v>
       </c>
       <c r="N20" t="n">
-        <v>1132.528960955779</v>
+        <v>1162.445356527566</v>
       </c>
       <c r="O20" t="n">
         <v>1396.408771989333</v>
@@ -5783,19 +5783,19 @@
         <v>1730.606882855385</v>
       </c>
       <c r="U20" t="n">
-        <v>1700.140851999794</v>
+        <v>1700.140851999795</v>
       </c>
       <c r="V20" t="n">
-        <v>1591.81002343913</v>
+        <v>1591.810023439131</v>
       </c>
       <c r="W20" t="n">
-        <v>1461.260108537016</v>
+        <v>1461.260108537017</v>
       </c>
       <c r="X20" t="n">
-        <v>1310.173342997917</v>
+        <v>1310.173342997918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1143.101251579964</v>
+        <v>1143.101251579965</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>34.6121376571077</v>
       </c>
       <c r="J21" t="n">
-        <v>34.6121376571077</v>
+        <v>61.20496968669892</v>
       </c>
       <c r="K21" t="n">
-        <v>34.6121376571077</v>
+        <v>233.2619685015197</v>
       </c>
       <c r="L21" t="n">
-        <v>256.4901664131398</v>
+        <v>525.4634435237115</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2756995855686</v>
+        <v>919.2489766961403</v>
       </c>
       <c r="N21" t="n">
         <v>1069.882296079079</v>
@@ -5856,7 +5856,7 @@
         <v>1730.606882855385</v>
       </c>
       <c r="S21" t="n">
-        <v>1730.606882855385</v>
+        <v>1726.974389146508</v>
       </c>
       <c r="T21" t="n">
         <v>1726.974389146508</v>
@@ -5935,10 +5935,10 @@
         <v>343.2931438675216</v>
       </c>
       <c r="S22" t="n">
-        <v>343.2931438675216</v>
+        <v>208.734191710421</v>
       </c>
       <c r="T22" t="n">
-        <v>336.9179246710041</v>
+        <v>202.3589725139036</v>
       </c>
       <c r="U22" t="n">
         <v>136.947677196783</v>
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>979.0298286062946</v>
+        <v>979.0298286062937</v>
       </c>
       <c r="C23" t="n">
-        <v>831.8587231199504</v>
+        <v>831.8587231199494</v>
       </c>
       <c r="D23" t="n">
-        <v>695.1728327087012</v>
+        <v>695.1728327087003</v>
       </c>
       <c r="E23" t="n">
-        <v>531.7058281553418</v>
+        <v>531.705828155341</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8187955966759</v>
+        <v>343.8187955966753</v>
       </c>
       <c r="G23" t="n">
         <v>148.6820108686303</v>
       </c>
       <c r="H23" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I23" t="n">
-        <v>65.1555730794659</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="J23" t="n">
-        <v>96.73885584450539</v>
+        <v>229.1540715218377</v>
       </c>
       <c r="K23" t="n">
-        <v>266.3506023194392</v>
+        <v>398.7658179967714</v>
       </c>
       <c r="L23" t="n">
-        <v>528.7380500413051</v>
+        <v>661.1532657186374</v>
       </c>
       <c r="M23" t="n">
-        <v>835.9069361385584</v>
+        <v>968.3221518158907</v>
       </c>
       <c r="N23" t="n">
-        <v>1132.528960955779</v>
+        <v>1264.944176633111</v>
       </c>
       <c r="O23" t="n">
-        <v>1366.492376417546</v>
+        <v>1498.907592094878</v>
       </c>
       <c r="P23" t="n">
-        <v>1529.235945411237</v>
+        <v>1661.651161088569</v>
       </c>
       <c r="Q23" t="n">
-        <v>1604.186582051247</v>
+        <v>1706.685402156792</v>
       </c>
       <c r="R23" t="n">
-        <v>1706.685402156793</v>
+        <v>1706.685402156792</v>
       </c>
       <c r="S23" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="T23" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="U23" t="n">
         <v>1700.140851999794</v>
@@ -6026,13 +6026,13 @@
         <v>1591.81002343913</v>
       </c>
       <c r="W23" t="n">
-        <v>1461.260108537017</v>
+        <v>1461.260108537016</v>
       </c>
       <c r="X23" t="n">
-        <v>1310.173342997918</v>
+        <v>1310.173342997917</v>
       </c>
       <c r="Y23" t="n">
-        <v>1143.101251579965</v>
+        <v>1143.101251579964</v>
       </c>
     </row>
     <row r="24">
@@ -6054,58 +6054,58 @@
         <v>179.5679276404908</v>
       </c>
       <c r="F24" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="G24" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="H24" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I24" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="J24" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="K24" t="n">
-        <v>206.6691364719285</v>
+        <v>71.40729228005188</v>
       </c>
       <c r="L24" t="n">
-        <v>498.8706114941203</v>
+        <v>363.6087673022437</v>
       </c>
       <c r="M24" t="n">
-        <v>892.6561446665492</v>
+        <v>757.3943004746725</v>
       </c>
       <c r="N24" t="n">
-        <v>1312.26274116006</v>
+        <v>1177.000896968183</v>
       </c>
       <c r="O24" t="n">
-        <v>1386.112336374815</v>
+        <v>1493.230937263919</v>
       </c>
       <c r="P24" t="n">
-        <v>1623.48828196628</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="Q24" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="R24" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="S24" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="T24" t="n">
-        <v>1730.606882855385</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="U24" t="n">
-        <v>1517.055600395851</v>
+        <v>1723.582498990274</v>
       </c>
       <c r="V24" t="n">
-        <v>1282.804356921452</v>
+        <v>1489.331255515875</v>
       </c>
       <c r="W24" t="n">
-        <v>1030.289865254785</v>
+        <v>1236.816763849208</v>
       </c>
       <c r="X24" t="n">
         <v>1030.289865254785</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="C25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="D25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="E25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="F25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="G25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="H25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="J25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="K25" t="n">
-        <v>39.77937429096424</v>
+        <v>39.77937429096423</v>
       </c>
       <c r="L25" t="n">
         <v>102.1952733014301</v>
@@ -6172,7 +6172,7 @@
         <v>343.2931438675216</v>
       </c>
       <c r="S25" t="n">
-        <v>343.2931438675216</v>
+        <v>208.734191710421</v>
       </c>
       <c r="T25" t="n">
         <v>202.3589725139036</v>
@@ -6184,13 +6184,13 @@
         <v>104.9773238437756</v>
       </c>
       <c r="W25" t="n">
-        <v>39.51583329836776</v>
+        <v>39.51583329836775</v>
       </c>
       <c r="X25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.6121376571077</v>
+        <v>34.61213765710768</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1255.896382028021</v>
       </c>
       <c r="D26" t="n">
-        <v>1046.846633965662</v>
+        <v>1046.846633965661</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0157717611917</v>
+        <v>811.0157717611912</v>
       </c>
       <c r="F26" t="n">
-        <v>550.7648815514153</v>
+        <v>550.7648815514149</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2642391722595</v>
+        <v>283.2642391722592</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83050830962625</v>
+        <v>96.83050830962594</v>
       </c>
       <c r="I26" t="n">
         <v>55.63024153940319</v>
       </c>
       <c r="J26" t="n">
-        <v>235.3625516555767</v>
+        <v>235.3625516555766</v>
       </c>
       <c r="K26" t="n">
         <v>553.1233254816441</v>
       </c>
       <c r="L26" t="n">
-        <v>963.6598005546438</v>
+        <v>963.6598005546437</v>
       </c>
       <c r="M26" t="n">
         <v>1418.977714003031</v>
@@ -6257,19 +6257,19 @@
         <v>2661.19154532123</v>
       </c>
       <c r="U26" t="n">
-        <v>2558.36165681453</v>
+        <v>2558.361656814529</v>
       </c>
       <c r="V26" t="n">
-        <v>2377.666970602755</v>
+        <v>2377.666970602754</v>
       </c>
       <c r="W26" t="n">
         <v>2174.75319804953</v>
       </c>
       <c r="X26" t="n">
-        <v>1951.302574859321</v>
+        <v>1951.30257485932</v>
       </c>
       <c r="Y26" t="n">
-        <v>1711.866625790257</v>
+        <v>1711.866625790256</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>814.7253470123801</v>
+        <v>678.5369822391706</v>
       </c>
       <c r="C27" t="n">
-        <v>641.9722319341972</v>
+        <v>505.7838671609878</v>
       </c>
       <c r="D27" t="n">
-        <v>494.3839252931411</v>
+        <v>358.1955605199316</v>
       </c>
       <c r="E27" t="n">
-        <v>336.7743962959958</v>
+        <v>200.5860315227863</v>
       </c>
       <c r="F27" t="n">
-        <v>191.8186063126126</v>
+        <v>55.63024153940319</v>
       </c>
       <c r="G27" t="n">
-        <v>191.8186063126126</v>
+        <v>55.63024153940319</v>
       </c>
       <c r="H27" t="n">
-        <v>135.8687813512776</v>
+        <v>55.63024153940319</v>
       </c>
       <c r="I27" t="n">
         <v>55.63024153940319</v>
@@ -6336,19 +6336,19 @@
         <v>1956.544715453124</v>
       </c>
       <c r="U27" t="n">
-        <v>1880.788967645778</v>
+        <v>1744.600602872569</v>
       </c>
       <c r="V27" t="n">
-        <v>1646.537724171379</v>
+        <v>1510.34935939817</v>
       </c>
       <c r="W27" t="n">
-        <v>1394.023232504712</v>
+        <v>1257.834867731503</v>
       </c>
       <c r="X27" t="n">
-        <v>1187.49633391029</v>
+        <v>1051.307969137081</v>
       </c>
       <c r="Y27" t="n">
-        <v>981.7678981339405</v>
+        <v>845.579533360731</v>
       </c>
     </row>
     <row r="28">
@@ -6382,25 +6382,25 @@
         <v>55.63024153940319</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8739749968038</v>
+        <v>55.63024153940319</v>
       </c>
       <c r="K28" t="n">
-        <v>133.0412116306604</v>
+        <v>142.1295870276207</v>
       </c>
       <c r="L28" t="n">
-        <v>195.4571106411262</v>
+        <v>352.6945133892202</v>
       </c>
       <c r="M28" t="n">
-        <v>420.0078517663624</v>
+        <v>429.0962271633227</v>
       </c>
       <c r="N28" t="n">
-        <v>647.8831927991176</v>
+        <v>508.8225408449443</v>
       </c>
       <c r="O28" t="n">
-        <v>798.7272293959633</v>
+        <v>567.1260990522953</v>
       </c>
       <c r="P28" t="n">
-        <v>825.3935142989797</v>
+        <v>741.9414113064454</v>
       </c>
       <c r="Q28" t="n">
         <v>825.3935142989797</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1475.431345165476</v>
+        <v>1475.431345165475</v>
       </c>
       <c r="C29" t="n">
         <v>1255.896382028021</v>
@@ -6446,67 +6446,67 @@
         <v>1046.846633965661</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0157717611912</v>
+        <v>811.015771761191</v>
       </c>
       <c r="F29" t="n">
-        <v>550.7648815514149</v>
+        <v>550.7648815514146</v>
       </c>
       <c r="G29" t="n">
-        <v>283.264239172259</v>
+        <v>283.2642391722588</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83050830962566</v>
+        <v>96.83050830962596</v>
       </c>
       <c r="I29" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="J29" t="n">
-        <v>235.3625516555763</v>
+        <v>235.3625516555757</v>
       </c>
       <c r="K29" t="n">
-        <v>553.1233254816436</v>
+        <v>553.1233254816432</v>
       </c>
       <c r="L29" t="n">
-        <v>963.6598005546431</v>
+        <v>963.6598005546427</v>
       </c>
       <c r="M29" t="n">
         <v>1418.97771400303</v>
       </c>
       <c r="N29" t="n">
-        <v>1863.748766171386</v>
+        <v>1863.748766171384</v>
       </c>
       <c r="O29" t="n">
-        <v>2245.861208984286</v>
+        <v>2245.861208984284</v>
       </c>
       <c r="P29" t="n">
-        <v>2556.753805329111</v>
+        <v>2556.753805329109</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.937073748467</v>
+        <v>2749.937073748466</v>
       </c>
       <c r="R29" t="n">
-        <v>2781.51207697016</v>
+        <v>2781.512076970158</v>
       </c>
       <c r="S29" t="n">
-        <v>2733.555402972342</v>
+        <v>2733.55540297234</v>
       </c>
       <c r="T29" t="n">
-        <v>2661.191545321231</v>
+        <v>2661.19154532123</v>
       </c>
       <c r="U29" t="n">
-        <v>2558.36165681453</v>
+        <v>2558.361656814529</v>
       </c>
       <c r="V29" t="n">
-        <v>2377.666970602755</v>
+        <v>2377.666970602754</v>
       </c>
       <c r="W29" t="n">
         <v>2174.75319804953</v>
       </c>
       <c r="X29" t="n">
-        <v>1951.302574859321</v>
+        <v>1951.30257485932</v>
       </c>
       <c r="Y29" t="n">
-        <v>1711.866625790257</v>
+        <v>1711.866625790256</v>
       </c>
     </row>
     <row r="30">
@@ -6528,19 +6528,19 @@
         <v>200.5860315227863</v>
       </c>
       <c r="F30" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="G30" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="H30" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="I30" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="J30" t="n">
-        <v>82.22307356899441</v>
+        <v>82.22307356899439</v>
       </c>
       <c r="K30" t="n">
         <v>254.2800723838152</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.3187580120061</v>
+        <v>102.3187580120059</v>
       </c>
       <c r="C31" t="n">
-        <v>84.44898956923825</v>
+        <v>84.44898956923811</v>
       </c>
       <c r="D31" t="n">
-        <v>84.44898956923825</v>
+        <v>84.44898956923811</v>
       </c>
       <c r="E31" t="n">
-        <v>84.44898956923825</v>
+        <v>84.44898956923811</v>
       </c>
       <c r="F31" t="n">
-        <v>84.44898956923825</v>
+        <v>84.44898956923811</v>
       </c>
       <c r="G31" t="n">
-        <v>66.19442815818888</v>
+        <v>66.1944281581888</v>
       </c>
       <c r="H31" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="I31" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="J31" t="n">
-        <v>55.63024153940319</v>
+        <v>55.63024153940317</v>
       </c>
       <c r="K31" t="n">
-        <v>60.79747817325974</v>
+        <v>60.79747817325972</v>
       </c>
       <c r="L31" t="n">
-        <v>271.3624045348591</v>
+        <v>123.2133771837256</v>
       </c>
       <c r="M31" t="n">
-        <v>495.9131456600952</v>
+        <v>347.7641183089617</v>
       </c>
       <c r="N31" t="n">
-        <v>723.7884866928505</v>
+        <v>427.4904319905833</v>
       </c>
       <c r="O31" t="n">
-        <v>798.7272293959643</v>
+        <v>633.9430175490679</v>
       </c>
       <c r="P31" t="n">
-        <v>825.3935142989807</v>
+        <v>808.758329803218</v>
       </c>
       <c r="Q31" t="n">
-        <v>825.3935142989807</v>
+        <v>825.3935142989798</v>
       </c>
       <c r="R31" t="n">
-        <v>809.2239889088726</v>
+        <v>809.2239889088718</v>
       </c>
       <c r="S31" t="n">
-        <v>738.8069700306989</v>
+        <v>738.8069700306982</v>
       </c>
       <c r="T31" t="n">
-        <v>660.0678931830707</v>
+        <v>660.0678931830701</v>
       </c>
       <c r="U31" t="n">
-        <v>522.2927402148395</v>
+        <v>522.2927402148389</v>
       </c>
       <c r="V31" t="n">
-        <v>417.9585292107213</v>
+        <v>417.9585292107208</v>
       </c>
       <c r="W31" t="n">
-        <v>280.1331810142028</v>
+        <v>280.1331810142024</v>
       </c>
       <c r="X31" t="n">
-        <v>202.865627721832</v>
+        <v>202.8656277218317</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.0644239896037</v>
+        <v>133.0644239896034</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1108.660591672142</v>
+        <v>1108.660591672143</v>
       </c>
       <c r="C32" t="n">
-        <v>940.7992341003687</v>
+        <v>940.7992341003699</v>
       </c>
       <c r="D32" t="n">
-        <v>783.4230916036911</v>
+        <v>783.4230916036922</v>
       </c>
       <c r="E32" t="n">
-        <v>599.2658349649032</v>
+        <v>599.2658349649043</v>
       </c>
       <c r="F32" t="n">
-        <v>390.6885503208089</v>
+        <v>390.68855032081</v>
       </c>
       <c r="G32" t="n">
         <v>174.8615135073358</v>
       </c>
       <c r="H32" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I32" t="n">
-        <v>50.36630756381432</v>
+        <v>50.36630756381436</v>
       </c>
       <c r="J32" t="n">
-        <v>81.94959032885382</v>
+        <v>81.94959032885386</v>
       </c>
       <c r="K32" t="n">
         <v>251.5613368037876</v>
       </c>
       <c r="L32" t="n">
-        <v>513.9487845256535</v>
+        <v>712.7431126917122</v>
       </c>
       <c r="M32" t="n">
-        <v>1010.203463629164</v>
+        <v>1180.842891512051</v>
       </c>
       <c r="N32" t="n">
-        <v>1505.619816612443</v>
+        <v>1477.464916329271</v>
       </c>
       <c r="O32" t="n">
-        <v>1793.648635827656</v>
+        <v>1711.428331791038</v>
       </c>
       <c r="P32" t="n">
-        <v>1956.392204821347</v>
+        <v>1874.171900784729</v>
       </c>
       <c r="Q32" t="n">
-        <v>2001.42644588957</v>
+        <v>1919.206141852952</v>
       </c>
       <c r="R32" t="n">
         <v>2001.42644588957</v>
@@ -6731,19 +6731,19 @@
         <v>1984.379158433804</v>
       </c>
       <c r="U32" t="n">
-        <v>1933.222875492785</v>
+        <v>1933.222875492786</v>
       </c>
       <c r="V32" t="n">
-        <v>1804.201794846692</v>
+        <v>1804.201794846693</v>
       </c>
       <c r="W32" t="n">
-        <v>1652.96162785915</v>
+        <v>1652.961627859151</v>
       </c>
       <c r="X32" t="n">
-        <v>1481.184610234622</v>
+        <v>1481.184610234624</v>
       </c>
       <c r="Y32" t="n">
-        <v>1293.42226673124</v>
+        <v>1293.422266731241</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>663.0081289101521</v>
+        <v>518.0523389267689</v>
       </c>
       <c r="C33" t="n">
-        <v>490.2550138319693</v>
+        <v>345.2992238485861</v>
       </c>
       <c r="D33" t="n">
-        <v>342.6667071909131</v>
+        <v>197.71091720753</v>
       </c>
       <c r="E33" t="n">
-        <v>185.0571781937678</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="F33" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="G33" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H33" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I33" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J33" t="n">
-        <v>66.69422023997595</v>
+        <v>66.69422023997572</v>
       </c>
       <c r="K33" t="n">
-        <v>238.7512190547968</v>
+        <v>238.7512190547966</v>
       </c>
       <c r="L33" t="n">
-        <v>530.9526940769888</v>
+        <v>530.9526940769885</v>
       </c>
       <c r="M33" t="n">
-        <v>924.7382272494176</v>
+        <v>924.7382272494173</v>
       </c>
       <c r="N33" t="n">
         <v>1344.344823742928</v>
       </c>
       <c r="O33" t="n">
-        <v>1660.574864038664</v>
+        <v>1660.574864038663</v>
       </c>
       <c r="P33" t="n">
-        <v>1897.950809630129</v>
+        <v>1897.950809630128</v>
       </c>
       <c r="Q33" t="n">
         <v>2005.069410519233</v>
       </c>
       <c r="R33" t="n">
-        <v>1952.704550595145</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="S33" t="n">
-        <v>1952.704550595145</v>
+        <v>1838.252415534315</v>
       </c>
       <c r="T33" t="n">
-        <v>1753.153891785214</v>
+        <v>1811.028760067374</v>
       </c>
       <c r="U33" t="n">
-        <v>1729.07174954355</v>
+        <v>1584.115959560167</v>
       </c>
       <c r="V33" t="n">
-        <v>1494.820506069151</v>
+        <v>1349.864716085768</v>
       </c>
       <c r="W33" t="n">
-        <v>1242.306014402484</v>
+        <v>1097.350224419101</v>
       </c>
       <c r="X33" t="n">
-        <v>1035.779115808062</v>
+        <v>890.8233258246789</v>
       </c>
       <c r="Y33" t="n">
-        <v>830.0506800317125</v>
+        <v>685.0948900483294</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="C34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="D34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="E34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="F34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="G34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="K34" t="n">
-        <v>45.26862484424122</v>
+        <v>45.2686248442412</v>
       </c>
       <c r="L34" t="n">
         <v>107.6845238547071</v>
       </c>
       <c r="M34" t="n">
-        <v>184.0862376288096</v>
+        <v>184.0862376288095</v>
       </c>
       <c r="N34" t="n">
-        <v>263.8125513104312</v>
+        <v>269.5758710595109</v>
       </c>
       <c r="O34" t="n">
-        <v>327.8794292668623</v>
+        <v>327.8794292668619</v>
       </c>
       <c r="P34" t="n">
-        <v>354.5457141698787</v>
+        <v>354.5457141698783</v>
       </c>
       <c r="Q34" t="n">
-        <v>354.5457141698787</v>
+        <v>354.5457141698783</v>
       </c>
       <c r="R34" t="n">
-        <v>354.5457141698787</v>
+        <v>354.5457141698783</v>
       </c>
       <c r="S34" t="n">
-        <v>335.8023008573871</v>
+        <v>335.8023008573868</v>
       </c>
       <c r="T34" t="n">
-        <v>308.736829575441</v>
+        <v>308.7368295754408</v>
       </c>
       <c r="U34" t="n">
-        <v>222.6352821728919</v>
+        <v>222.6352821728917</v>
       </c>
       <c r="V34" t="n">
-        <v>169.9746767344559</v>
+        <v>169.9746767344557</v>
       </c>
       <c r="W34" t="n">
-        <v>83.82293410361952</v>
+        <v>83.82293410361939</v>
       </c>
       <c r="X34" t="n">
-        <v>58.22898637693086</v>
+        <v>58.22898637693079</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1108.660591672143</v>
+        <v>1108.660591672142</v>
       </c>
       <c r="C35" t="n">
-        <v>940.7992341003697</v>
+        <v>940.7992341003694</v>
       </c>
       <c r="D35" t="n">
-        <v>783.423091603692</v>
+        <v>783.4230916036917</v>
       </c>
       <c r="E35" t="n">
-        <v>599.2658349649039</v>
+        <v>599.2658349649038</v>
       </c>
       <c r="F35" t="n">
-        <v>390.6885503208096</v>
+        <v>390.6885503208094</v>
       </c>
       <c r="G35" t="n">
         <v>174.8615135073359</v>
       </c>
       <c r="H35" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="I35" t="n">
-        <v>40.10138821038466</v>
+        <v>50.36630756381429</v>
       </c>
       <c r="J35" t="n">
-        <v>71.68467097542415</v>
+        <v>81.94959032885379</v>
       </c>
       <c r="K35" t="n">
-        <v>241.2964174503579</v>
+        <v>422.2007646866752</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6838651722239</v>
+        <v>684.5882124085412</v>
       </c>
       <c r="M35" t="n">
-        <v>982.0485633459921</v>
+        <v>1180.842891512051</v>
       </c>
       <c r="N35" t="n">
-        <v>1477.464916329271</v>
+        <v>1477.464916329272</v>
       </c>
       <c r="O35" t="n">
-        <v>1711.428331791038</v>
+        <v>1711.428331791039</v>
       </c>
       <c r="P35" t="n">
-        <v>1874.171900784729</v>
+        <v>1874.17190078473</v>
       </c>
       <c r="Q35" t="n">
-        <v>1919.206141852952</v>
+        <v>1919.206141852953</v>
       </c>
       <c r="R35" t="n">
         <v>2001.42644588957</v>
       </c>
       <c r="S35" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519234</v>
       </c>
       <c r="T35" t="n">
         <v>1984.379158433804</v>
@@ -6974,10 +6974,10 @@
         <v>1804.201794846693</v>
       </c>
       <c r="W35" t="n">
-        <v>1652.961627859151</v>
+        <v>1652.96162785915</v>
       </c>
       <c r="X35" t="n">
-        <v>1481.184610234624</v>
+        <v>1481.184610234623</v>
       </c>
       <c r="Y35" t="n">
         <v>1293.422266731241</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>800.1979681182574</v>
+        <v>518.0523389267689</v>
       </c>
       <c r="C36" t="n">
-        <v>627.4448530400746</v>
+        <v>345.2992238485861</v>
       </c>
       <c r="D36" t="n">
-        <v>479.8565463990185</v>
+        <v>197.71091720753</v>
       </c>
       <c r="E36" t="n">
-        <v>322.2470174018732</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="F36" t="n">
-        <v>177.2912274184901</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="G36" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="H36" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="I36" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="J36" t="n">
-        <v>66.69422023997572</v>
+        <v>66.69422023997606</v>
       </c>
       <c r="K36" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547969</v>
       </c>
       <c r="L36" t="n">
-        <v>530.9526940769885</v>
+        <v>530.9526940769887</v>
       </c>
       <c r="M36" t="n">
-        <v>924.7382272494173</v>
+        <v>924.7382272494175</v>
       </c>
       <c r="N36" t="n">
         <v>1344.344823742928</v>
       </c>
       <c r="O36" t="n">
-        <v>1660.574864038663</v>
+        <v>1660.574864038664</v>
       </c>
       <c r="P36" t="n">
-        <v>1897.950809630128</v>
+        <v>1897.950809630129</v>
       </c>
       <c r="Q36" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519234</v>
       </c>
       <c r="R36" t="n">
-        <v>2005.069410519233</v>
+        <v>1977.845755052292</v>
       </c>
       <c r="S36" t="n">
-        <v>2005.069410519233</v>
+        <v>1811.028760067374</v>
       </c>
       <c r="T36" t="n">
-        <v>2005.069410519233</v>
+        <v>1811.028760067374</v>
       </c>
       <c r="U36" t="n">
-        <v>1866.261588751656</v>
+        <v>1584.115959560167</v>
       </c>
       <c r="V36" t="n">
-        <v>1632.010345277257</v>
+        <v>1349.864716085768</v>
       </c>
       <c r="W36" t="n">
-        <v>1379.49585361059</v>
+        <v>1097.350224419101</v>
       </c>
       <c r="X36" t="n">
-        <v>1172.968955016167</v>
+        <v>890.8233258246789</v>
       </c>
       <c r="Y36" t="n">
-        <v>967.2405192398179</v>
+        <v>685.0948900483294</v>
       </c>
     </row>
     <row r="37">
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="C37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="D37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="E37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="F37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="G37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="H37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="I37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="J37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
       <c r="K37" t="n">
-        <v>45.2686248442412</v>
+        <v>45.26862484424122</v>
       </c>
       <c r="L37" t="n">
-        <v>113.4478436037873</v>
+        <v>107.6845238547071</v>
       </c>
       <c r="M37" t="n">
-        <v>189.8495573778898</v>
+        <v>184.0862376288096</v>
       </c>
       <c r="N37" t="n">
-        <v>269.5758710595115</v>
+        <v>263.8125513104312</v>
       </c>
       <c r="O37" t="n">
-        <v>327.8794292668625</v>
+        <v>322.1161095177822</v>
       </c>
       <c r="P37" t="n">
-        <v>354.5457141698789</v>
+        <v>348.7823944207986</v>
       </c>
       <c r="Q37" t="n">
-        <v>354.5457141698789</v>
+        <v>348.7823944207986</v>
       </c>
       <c r="R37" t="n">
         <v>354.5457141698789</v>
@@ -7132,13 +7132,13 @@
         <v>169.974676734456</v>
       </c>
       <c r="W37" t="n">
-        <v>83.82293410361956</v>
+        <v>83.82293410361957</v>
       </c>
       <c r="X37" t="n">
-        <v>58.22898637693088</v>
+        <v>58.22898637693089</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1108.660591672142</v>
+        <v>1108.660591672141</v>
       </c>
       <c r="C38" t="n">
-        <v>940.7992341003694</v>
+        <v>940.7992341003688</v>
       </c>
       <c r="D38" t="n">
-        <v>783.4230916036918</v>
+        <v>783.4230916036911</v>
       </c>
       <c r="E38" t="n">
-        <v>599.2658349649037</v>
+        <v>599.2658349649032</v>
       </c>
       <c r="F38" t="n">
-        <v>390.6885503208093</v>
+        <v>390.6885503208089</v>
       </c>
       <c r="G38" t="n">
         <v>174.8615135073359</v>
       </c>
       <c r="H38" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="I38" t="n">
-        <v>50.36630756381427</v>
+        <v>50.36630756381424</v>
       </c>
       <c r="J38" t="n">
-        <v>280.7439184949124</v>
+        <v>81.94959032885373</v>
       </c>
       <c r="K38" t="n">
-        <v>450.3556649698461</v>
+        <v>251.5613368037875</v>
       </c>
       <c r="L38" t="n">
-        <v>712.743112691712</v>
+        <v>513.9487845256534</v>
       </c>
       <c r="M38" t="n">
-        <v>1019.911998788965</v>
+        <v>821.1176706229069</v>
       </c>
       <c r="N38" t="n">
         <v>1316.534023606186</v>
@@ -7196,10 +7196,10 @@
         <v>1919.206141852952</v>
       </c>
       <c r="R38" t="n">
-        <v>2001.42644588957</v>
+        <v>2001.426445889569</v>
       </c>
       <c r="S38" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T38" t="n">
         <v>1984.379158433804</v>
@@ -7208,16 +7208,16 @@
         <v>1933.222875492785</v>
       </c>
       <c r="V38" t="n">
-        <v>1804.201794846693</v>
+        <v>1804.201794846692</v>
       </c>
       <c r="W38" t="n">
         <v>1652.96162785915</v>
       </c>
       <c r="X38" t="n">
-        <v>1481.184610234623</v>
+        <v>1481.184610234622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1293.422266731241</v>
+        <v>1293.42226673124</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>663.0081289101521</v>
+        <v>663.008128910152</v>
       </c>
       <c r="C39" t="n">
-        <v>490.2550138319693</v>
+        <v>490.2550138319692</v>
       </c>
       <c r="D39" t="n">
         <v>342.6667071909131</v>
@@ -7239,28 +7239,28 @@
         <v>185.0571781937678</v>
       </c>
       <c r="F39" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="G39" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="H39" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="I39" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="J39" t="n">
-        <v>66.69422023997588</v>
+        <v>66.69422023997507</v>
       </c>
       <c r="K39" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547959</v>
       </c>
       <c r="L39" t="n">
-        <v>530.9526940769885</v>
+        <v>530.9526940769877</v>
       </c>
       <c r="M39" t="n">
-        <v>924.7382272494173</v>
+        <v>924.7382272494165</v>
       </c>
       <c r="N39" t="n">
         <v>1344.344823742927</v>
@@ -7272,16 +7272,16 @@
         <v>1897.950809630128</v>
       </c>
       <c r="Q39" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="R39" t="n">
-        <v>2005.069410519233</v>
+        <v>1955.984550050757</v>
       </c>
       <c r="S39" t="n">
-        <v>1952.704550595145</v>
+        <v>1955.984550050757</v>
       </c>
       <c r="T39" t="n">
-        <v>1753.153891785214</v>
+        <v>1955.984550050757</v>
       </c>
       <c r="U39" t="n">
         <v>1729.07174954355</v>
@@ -7296,7 +7296,7 @@
         <v>1035.779115808062</v>
       </c>
       <c r="Y39" t="n">
-        <v>830.0506800317125</v>
+        <v>830.0506800317124</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="C40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="D40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="E40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="F40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="G40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="H40" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946518</v>
       </c>
       <c r="I40" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946518</v>
       </c>
       <c r="J40" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946518</v>
       </c>
       <c r="K40" t="n">
-        <v>45.2686248442412</v>
+        <v>51.03194459332173</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4478436037873</v>
+        <v>113.4478436037876</v>
       </c>
       <c r="M40" t="n">
-        <v>189.8495573778898</v>
+        <v>189.8495573778901</v>
       </c>
       <c r="N40" t="n">
-        <v>269.5758710595115</v>
+        <v>269.5758710595117</v>
       </c>
       <c r="O40" t="n">
-        <v>327.8794292668625</v>
+        <v>327.8794292668627</v>
       </c>
       <c r="P40" t="n">
-        <v>354.5457141698789</v>
+        <v>354.5457141698791</v>
       </c>
       <c r="Q40" t="n">
-        <v>354.5457141698789</v>
+        <v>354.5457141698791</v>
       </c>
       <c r="R40" t="n">
-        <v>354.5457141698789</v>
+        <v>354.5457141698791</v>
       </c>
       <c r="S40" t="n">
-        <v>335.8023008573873</v>
+        <v>335.8023008573875</v>
       </c>
       <c r="T40" t="n">
-        <v>308.7368295754412</v>
+        <v>308.7368295754413</v>
       </c>
       <c r="U40" t="n">
         <v>222.6352821728921</v>
       </c>
       <c r="V40" t="n">
-        <v>169.974676734456</v>
+        <v>169.9746767344561</v>
       </c>
       <c r="W40" t="n">
-        <v>83.82293410361956</v>
+        <v>83.8229341036196</v>
       </c>
       <c r="X40" t="n">
-        <v>58.22898637693088</v>
+        <v>58.2289863769309</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1108.660591672142</v>
+        <v>1108.660591672143</v>
       </c>
       <c r="C41" t="n">
-        <v>940.7992341003694</v>
+        <v>940.7992341003699</v>
       </c>
       <c r="D41" t="n">
-        <v>783.4230916036917</v>
+        <v>783.423091603692</v>
       </c>
       <c r="E41" t="n">
-        <v>599.2658349649038</v>
+        <v>599.2658349649039</v>
       </c>
       <c r="F41" t="n">
-        <v>390.6885503208094</v>
+        <v>390.6885503208096</v>
       </c>
       <c r="G41" t="n">
         <v>174.8615135073359</v>
       </c>
       <c r="H41" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I41" t="n">
         <v>50.36630756381427</v>
       </c>
       <c r="J41" t="n">
-        <v>280.7439184949124</v>
+        <v>81.94959032885377</v>
       </c>
       <c r="K41" t="n">
-        <v>611.286557692932</v>
+        <v>251.5613368037875</v>
       </c>
       <c r="L41" t="n">
-        <v>873.6740054147979</v>
+        <v>513.9487845256535</v>
       </c>
       <c r="M41" t="n">
-        <v>1180.842891512051</v>
+        <v>821.1176706229069</v>
       </c>
       <c r="N41" t="n">
-        <v>1477.464916329272</v>
+        <v>1117.739695440127</v>
       </c>
       <c r="O41" t="n">
-        <v>1711.428331791038</v>
+        <v>1351.703110901894</v>
       </c>
       <c r="P41" t="n">
-        <v>1874.17190078473</v>
+        <v>1675.37757261867</v>
       </c>
       <c r="Q41" t="n">
-        <v>1919.206141852953</v>
+        <v>1919.206141852952</v>
       </c>
       <c r="R41" t="n">
         <v>2001.42644588957</v>
@@ -7448,10 +7448,10 @@
         <v>1804.201794846693</v>
       </c>
       <c r="W41" t="n">
-        <v>1652.96162785915</v>
+        <v>1652.961627859151</v>
       </c>
       <c r="X41" t="n">
-        <v>1481.184610234623</v>
+        <v>1481.184610234624</v>
       </c>
       <c r="Y41" t="n">
         <v>1293.422266731241</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.0929893786283</v>
+        <v>800.1979681182574</v>
       </c>
       <c r="C42" t="n">
-        <v>539.3398743004454</v>
+        <v>627.4448530400746</v>
       </c>
       <c r="D42" t="n">
-        <v>391.7515676593893</v>
+        <v>479.8565463990185</v>
       </c>
       <c r="E42" t="n">
-        <v>234.142038662244</v>
+        <v>322.2470174018732</v>
       </c>
       <c r="F42" t="n">
-        <v>89.18624867886086</v>
+        <v>177.2912274184901</v>
       </c>
       <c r="G42" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H42" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I42" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J42" t="n">
-        <v>66.69422023997595</v>
+        <v>66.69422023997588</v>
       </c>
       <c r="K42" t="n">
-        <v>238.7512190547968</v>
+        <v>238.7512190547966</v>
       </c>
       <c r="L42" t="n">
-        <v>530.9526940769886</v>
+        <v>530.9526940769885</v>
       </c>
       <c r="M42" t="n">
-        <v>924.7382272494174</v>
+        <v>924.7382272494173</v>
       </c>
       <c r="N42" t="n">
         <v>1344.344823742928</v>
       </c>
       <c r="O42" t="n">
-        <v>1660.574864038664</v>
+        <v>1660.574864038663</v>
       </c>
       <c r="P42" t="n">
         <v>1897.950809630129</v>
@@ -7521,19 +7521,19 @@
         <v>2005.069410519233</v>
       </c>
       <c r="U42" t="n">
-        <v>1778.156610012027</v>
+        <v>1866.261588751656</v>
       </c>
       <c r="V42" t="n">
-        <v>1543.905366537628</v>
+        <v>1632.010345277257</v>
       </c>
       <c r="W42" t="n">
-        <v>1291.390874870961</v>
+        <v>1379.49585361059</v>
       </c>
       <c r="X42" t="n">
-        <v>1084.863976276538</v>
+        <v>1172.968955016167</v>
       </c>
       <c r="Y42" t="n">
-        <v>879.1355405001888</v>
+        <v>967.2405192398179</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="C43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="D43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="E43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="F43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="G43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J43" t="n">
-        <v>45.86470795946501</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="K43" t="n">
-        <v>51.03194459332154</v>
+        <v>45.2686248442412</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4478436037874</v>
+        <v>107.6845238547071</v>
       </c>
       <c r="M43" t="n">
-        <v>189.8495573778898</v>
+        <v>184.0862376288095</v>
       </c>
       <c r="N43" t="n">
-        <v>269.5758710595115</v>
+        <v>263.8125513104312</v>
       </c>
       <c r="O43" t="n">
-        <v>327.8794292668625</v>
+        <v>322.1161095177822</v>
       </c>
       <c r="P43" t="n">
-        <v>354.5457141698789</v>
+        <v>348.7823944207986</v>
       </c>
       <c r="Q43" t="n">
         <v>354.5457141698789</v>
@@ -7606,13 +7606,13 @@
         <v>169.974676734456</v>
       </c>
       <c r="W43" t="n">
-        <v>83.82293410361957</v>
+        <v>83.82293410361956</v>
       </c>
       <c r="X43" t="n">
-        <v>58.22898637693089</v>
+        <v>58.22898637693088</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7625,67 @@
         <v>1108.660591672143</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7992341003704</v>
+        <v>940.79923410037</v>
       </c>
       <c r="D44" t="n">
-        <v>783.4230916036927</v>
+        <v>783.4230916036922</v>
       </c>
       <c r="E44" t="n">
-        <v>599.2658349649042</v>
+        <v>599.2658349649038</v>
       </c>
       <c r="F44" t="n">
-        <v>390.6885503208098</v>
+        <v>390.6885503208093</v>
       </c>
       <c r="G44" t="n">
         <v>174.8615135073359</v>
       </c>
       <c r="H44" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I44" t="n">
         <v>50.36630756381422</v>
       </c>
       <c r="J44" t="n">
-        <v>81.9495903288537</v>
+        <v>280.7439184949122</v>
       </c>
       <c r="K44" t="n">
-        <v>251.5613368037874</v>
+        <v>450.355664969846</v>
       </c>
       <c r="L44" t="n">
-        <v>513.9487845256533</v>
+        <v>712.743112691712</v>
       </c>
       <c r="M44" t="n">
-        <v>982.048563345993</v>
+        <v>1019.911998788965</v>
       </c>
       <c r="N44" t="n">
-        <v>1278.670588163214</v>
+        <v>1316.534023606186</v>
       </c>
       <c r="O44" t="n">
-        <v>1512.63400362498</v>
+        <v>1749.291767234011</v>
       </c>
       <c r="P44" t="n">
-        <v>1675.377572618671</v>
+        <v>1912.035336227702</v>
       </c>
       <c r="Q44" t="n">
-        <v>1919.206141852953</v>
+        <v>1957.069577295925</v>
       </c>
       <c r="R44" t="n">
-        <v>2001.42644588957</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="S44" t="n">
         <v>2005.069410519233</v>
       </c>
       <c r="T44" t="n">
-        <v>1984.379158433805</v>
+        <v>1984.379158433804</v>
       </c>
       <c r="U44" t="n">
         <v>1933.222875492786</v>
       </c>
       <c r="V44" t="n">
-        <v>1804.201794846694</v>
+        <v>1804.201794846693</v>
       </c>
       <c r="W44" t="n">
-        <v>1652.961627859152</v>
+        <v>1652.961627859151</v>
       </c>
       <c r="X44" t="n">
         <v>1481.184610234624</v>
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.0081289101521</v>
+        <v>712.0929893786279</v>
       </c>
       <c r="C45" t="n">
-        <v>490.2550138319693</v>
+        <v>539.339874300445</v>
       </c>
       <c r="D45" t="n">
-        <v>342.6667071909131</v>
+        <v>391.7515676593889</v>
       </c>
       <c r="E45" t="n">
-        <v>185.0571781937678</v>
+        <v>234.1420386622436</v>
       </c>
       <c r="F45" t="n">
-        <v>40.10138821038467</v>
+        <v>89.18624867886041</v>
       </c>
       <c r="G45" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H45" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I45" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J45" t="n">
-        <v>66.69422023997588</v>
+        <v>66.69422023997572</v>
       </c>
       <c r="K45" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547964</v>
       </c>
       <c r="L45" t="n">
-        <v>530.9526940769883</v>
+        <v>530.9526940769882</v>
       </c>
       <c r="M45" t="n">
-        <v>924.7382272494172</v>
+        <v>924.738227249417</v>
       </c>
       <c r="N45" t="n">
         <v>1344.344823742928</v>
@@ -7743,34 +7743,34 @@
         <v>1660.574864038663</v>
       </c>
       <c r="P45" t="n">
-        <v>1897.950809630129</v>
+        <v>1897.950809630128</v>
       </c>
       <c r="Q45" t="n">
         <v>2005.069410519233</v>
       </c>
       <c r="R45" t="n">
-        <v>1952.704550595145</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="S45" t="n">
-        <v>1952.704550595145</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="T45" t="n">
-        <v>1753.153891785214</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="U45" t="n">
-        <v>1729.07174954355</v>
+        <v>1778.156610012026</v>
       </c>
       <c r="V45" t="n">
-        <v>1494.820506069151</v>
+        <v>1543.905366537627</v>
       </c>
       <c r="W45" t="n">
-        <v>1242.306014402484</v>
+        <v>1291.39087487096</v>
       </c>
       <c r="X45" t="n">
-        <v>1035.779115808062</v>
+        <v>1084.863976276538</v>
       </c>
       <c r="Y45" t="n">
-        <v>830.0506800317125</v>
+        <v>879.1355405001883</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="C46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="D46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="E46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="F46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="G46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J46" t="n">
-        <v>40.10138821038467</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="K46" t="n">
-        <v>51.03194459332188</v>
+        <v>51.03194459332184</v>
       </c>
       <c r="L46" t="n">
         <v>113.4478436037877</v>
@@ -7843,13 +7843,13 @@
         <v>169.9746767344562</v>
       </c>
       <c r="W46" t="n">
-        <v>83.82293410361969</v>
+        <v>83.82293410361967</v>
       </c>
       <c r="X46" t="n">
-        <v>58.22898637693095</v>
+        <v>58.22898637693093</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.10138821038467</v>
+        <v>40.10138821038466</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>294.7607454977269</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
         <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>297.4618566494213</v>
       </c>
       <c r="N2" t="n">
-        <v>296.5520162595063</v>
+        <v>303.8508777355472</v>
       </c>
       <c r="O2" t="n">
-        <v>304.5188968650154</v>
+        <v>304.5188968650157</v>
       </c>
       <c r="P2" t="n">
-        <v>305.6253115902587</v>
+        <v>305.6253115902589</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8058,22 +8058,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>214.5685437288709</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>218.7538238028387</v>
+        <v>208.0465142314857</v>
       </c>
       <c r="N3" t="n">
-        <v>208.2313100101208</v>
+        <v>208.2313100101211</v>
       </c>
       <c r="O3" t="n">
-        <v>208.4971694908509</v>
+        <v>219.2044790622044</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>210.7981879578431</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8216,22 +8216,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>294.7607454977272</v>
       </c>
       <c r="L5" t="n">
-        <v>310.0453953246084</v>
+        <v>310.0453953246086</v>
       </c>
       <c r="M5" t="n">
-        <v>304.7607181254618</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N5" t="n">
-        <v>303.850877735547</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O5" t="n">
-        <v>297.2200353889747</v>
+        <v>304.5188968650157</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>298.3264501142182</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8295,25 +8295,25 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>211.3292249115428</v>
+        <v>211.329224911543</v>
       </c>
       <c r="L6" t="n">
-        <v>135.0905202853774</v>
+        <v>215.2636610142484</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>218.753823802839</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>208.2313100101211</v>
       </c>
       <c r="O6" t="n">
-        <v>219.2044790622042</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>210.7981879578429</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.6553704627418</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8529,19 +8529,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>193.946264309525</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7176364193258</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8775,10 +8775,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7203244663194</v>
+        <v>471.5483191834449</v>
       </c>
       <c r="N12" t="n">
-        <v>74.67102235415341</v>
+        <v>159.0436345957194</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>110.2797722865916</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9006,7 +9006,7 @@
         <v>104.2732302594886</v>
       </c>
       <c r="K15" t="n">
-        <v>101.248898195283</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9018,13 +9018,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>272.9886866014593</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.4465951380511</v>
+        <v>110.2797722865916</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9243,7 +9243,7 @@
         <v>104.2732302594886</v>
       </c>
       <c r="K18" t="n">
-        <v>138.4157210467425</v>
+        <v>101.248898195283</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.2797722865916</v>
+        <v>147.4465951380511</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>104.2732302594886</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>101.248898195283</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>314.6401750083656</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>226.8258904177283</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9717,7 +9717,7 @@
         <v>104.2732302594886</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>138.4157210467418</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9729,13 +9729,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
-        <v>164.7880796427679</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>110.2797722865916</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540244</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10911,7 +10911,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.516069317295</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.9997892828914</v>
+        <v>241.9997892828913</v>
       </c>
       <c r="D11" t="n">
-        <v>231.6194263585472</v>
+        <v>231.6194263585471</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>35.48914111323285</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>289.4858117321751</v>
       </c>
       <c r="H11" t="n">
-        <v>209.2295693308179</v>
+        <v>209.2295693308178</v>
       </c>
       <c r="I11" t="n">
-        <v>65.44843987933159</v>
+        <v>65.44843987933147</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.13728303465123</v>
+        <v>72.13728303465112</v>
       </c>
       <c r="T11" t="n">
-        <v>96.30039485141059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.4617653984448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>203.5479151264681</v>
+        <v>203.547915126468</v>
       </c>
       <c r="W11" t="n">
-        <v>225.5448106045034</v>
+        <v>225.5448106045033</v>
       </c>
       <c r="X11" t="n">
-        <v>102.2127925955538</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.386247680361917</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.386247680358309</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>116.2329697190667</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.9997892828912</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>258.1327293592361</v>
       </c>
       <c r="F14" t="n">
-        <v>282.3085570844895</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>209.2295693308178</v>
       </c>
       <c r="I14" t="n">
-        <v>65.44843987933147</v>
+        <v>65.44843987933142</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.13728303465106</v>
       </c>
       <c r="T14" t="n">
-        <v>96.30039485141047</v>
+        <v>96.30039485141042</v>
       </c>
       <c r="U14" t="n">
         <v>126.4617653984447</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.06148495212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.386247680359219</v>
+        <v>2.386247680357343</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.708794387651906e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1152381.567580534</v>
+        <v>1152381.567580535</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122087.9112922405</v>
+        <v>122087.9112922404</v>
       </c>
       <c r="C2" t="n">
-        <v>122087.9112922405</v>
+        <v>122087.9112922404</v>
       </c>
       <c r="D2" t="n">
-        <v>122087.9112922405</v>
+        <v>122087.9112922404</v>
       </c>
       <c r="E2" t="n">
-        <v>103279.7646942275</v>
+        <v>103279.7646942276</v>
       </c>
       <c r="F2" t="n">
         <v>105488.7999801623</v>
       </c>
       <c r="G2" t="n">
-        <v>122087.9112922406</v>
+        <v>122087.9112922405</v>
       </c>
       <c r="H2" t="n">
         <v>122087.9112922405</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26867.86344048139</v>
+        <v>26867.86344048147</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60296.59636991282</v>
+        <v>60296.59636991275</v>
       </c>
       <c r="E3" t="n">
         <v>209709.7245994597</v>
       </c>
       <c r="F3" t="n">
-        <v>13659.69812337633</v>
+        <v>13659.69812337629</v>
       </c>
       <c r="G3" t="n">
-        <v>77040.31588112836</v>
+        <v>77040.31588112832</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>132393.6507422676</v>
+        <v>132393.6507422678</v>
       </c>
       <c r="K3" t="n">
         <v>5.5409215677243e-11</v>
@@ -26396,13 +26396,13 @@
         <v>117965.8114891486</v>
       </c>
       <c r="M3" t="n">
-        <v>27585.48983997083</v>
+        <v>27585.48983997085</v>
       </c>
       <c r="N3" t="n">
-        <v>11676.52807167295</v>
+        <v>11676.52807167289</v>
       </c>
       <c r="O3" t="n">
-        <v>42676.06985716136</v>
+        <v>42676.06985716148</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338538.9419734728</v>
+        <v>338538.9419734727</v>
       </c>
       <c r="C4" t="n">
-        <v>338538.9419734728</v>
+        <v>338538.9419734727</v>
       </c>
       <c r="D4" t="n">
         <v>293256.9802362565</v>
       </c>
       <c r="E4" t="n">
-        <v>186846.642137274</v>
+        <v>186846.6421372741</v>
       </c>
       <c r="F4" t="n">
-        <v>191580.396222632</v>
+        <v>191580.3962226321</v>
       </c>
       <c r="G4" t="n">
         <v>254477.1701724459</v>
@@ -26445,7 +26445,7 @@
         <v>250122.7050276993</v>
       </c>
       <c r="L4" t="n">
-        <v>249194.0994016848</v>
+        <v>249194.0994016849</v>
       </c>
       <c r="M4" t="n">
         <v>249194.0994016848</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38502.12695631535</v>
+        <v>38502.12695631536</v>
       </c>
       <c r="C5" t="n">
-        <v>38502.12695631535</v>
+        <v>38502.12695631536</v>
       </c>
       <c r="D5" t="n">
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>35994.48862360182</v>
+        <v>35994.48862360184</v>
       </c>
       <c r="F5" t="n">
         <v>38893.03760659561</v>
@@ -26488,28 +26488,28 @@
         <v>46988.91550135883</v>
       </c>
       <c r="I5" t="n">
-        <v>46988.91550135883</v>
+        <v>46988.91550135882</v>
       </c>
       <c r="J5" t="n">
         <v>56939.9528745209</v>
       </c>
       <c r="K5" t="n">
-        <v>56939.9528745209</v>
+        <v>56939.95287452089</v>
       </c>
       <c r="L5" t="n">
+        <v>49438.73120730513</v>
+      </c>
+      <c r="M5" t="n">
         <v>49438.73120730514</v>
       </c>
-      <c r="M5" t="n">
-        <v>49438.73120730513</v>
-      </c>
       <c r="N5" t="n">
-        <v>49438.73120730512</v>
+        <v>49438.73120730511</v>
       </c>
       <c r="O5" t="n">
         <v>49438.73120730513</v>
       </c>
       <c r="P5" t="n">
-        <v>49438.73120730513</v>
+        <v>49438.73120730512</v>
       </c>
     </row>
     <row r="6">
@@ -26522,16 +26522,16 @@
         <v>-281821.0210780291</v>
       </c>
       <c r="C6" t="n">
-        <v>-254953.1576375477</v>
+        <v>-254953.1576375476</v>
       </c>
       <c r="D6" t="n">
         <v>-281769.7208002983</v>
       </c>
       <c r="E6" t="n">
-        <v>-329271.0906661079</v>
+        <v>-329584.559776075</v>
       </c>
       <c r="F6" t="n">
-        <v>-138644.3319724417</v>
+        <v>-138920.983827643</v>
       </c>
       <c r="G6" t="n">
         <v>-256418.4902626925</v>
@@ -26540,13 +26540,13 @@
         <v>-179378.1743815642</v>
       </c>
       <c r="I6" t="n">
-        <v>-179378.1743815642</v>
+        <v>-179378.1743815641</v>
       </c>
       <c r="J6" t="n">
-        <v>-317368.3973522472</v>
+        <v>-317368.3973522474</v>
       </c>
       <c r="K6" t="n">
-        <v>-184974.7466099796</v>
+        <v>-184974.7466099797</v>
       </c>
       <c r="L6" t="n">
         <v>-294510.7308058981</v>
@@ -26555,10 +26555,10 @@
         <v>-204130.4091567203</v>
       </c>
       <c r="N6" t="n">
-        <v>-188221.4473884224</v>
+        <v>-188221.4473884223</v>
       </c>
       <c r="O6" t="n">
-        <v>-219220.9891739108</v>
+        <v>-219220.9891739109</v>
       </c>
       <c r="P6" t="n">
         <v>-176544.9193167494</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F2" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="G2" t="n">
         <v>221.2857012474618</v>
@@ -26719,7 +26719,7 @@
         <v>200.8023516828875</v>
       </c>
       <c r="N2" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="O2" t="n">
         <v>200.8023516828875</v>
@@ -26774,10 +26774,10 @@
         <v>95.43225980661117</v>
       </c>
       <c r="O3" t="n">
-        <v>95.4322598066111</v>
+        <v>95.43225980661117</v>
       </c>
       <c r="P3" t="n">
-        <v>95.4322598066111</v>
+        <v>95.43225980661119</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="C4" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="D4" t="n">
         <v>274.2838073416025</v>
@@ -26808,28 +26808,28 @@
         <v>432.6517207138461</v>
       </c>
       <c r="I4" t="n">
-        <v>432.6517207138461</v>
+        <v>432.651720713846</v>
       </c>
       <c r="J4" t="n">
         <v>695.3780192425398</v>
       </c>
       <c r="K4" t="n">
-        <v>695.3780192425399</v>
+        <v>695.3780192425396</v>
       </c>
       <c r="L4" t="n">
-        <v>501.2673526298083</v>
+        <v>501.2673526298082</v>
       </c>
       <c r="M4" t="n">
+        <v>501.2673526298084</v>
+      </c>
+      <c r="N4" t="n">
+        <v>501.2673526298081</v>
+      </c>
+      <c r="O4" t="n">
         <v>501.2673526298082</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>501.2673526298082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>501.2673526298083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>501.2673526298083</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>96.30039485141046</v>
+        <v>96.3003948514104</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.3450873214517</v>
+        <v>53.34508732145181</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>147.4572643614358</v>
+        <v>147.4572643614357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.3450873214517</v>
+        <v>53.34508732145184</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>194.1106666127316</v>
+        <v>194.1106666127314</v>
       </c>
       <c r="E4" t="n">
         <v>110.6944103624776</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>342.8994392575646</v>
+        <v>342.8994392575649</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.6944103624775</v>
+        <v>110.6944103624778</v>
       </c>
       <c r="N4" t="n">
-        <v>47.67350300976597</v>
+        <v>47.67350300976574</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.30039485141046</v>
+        <v>96.3003948514104</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.3450873214517</v>
+        <v>53.34508732145181</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>194.1106666127316</v>
+        <v>194.1106666127314</v>
       </c>
       <c r="M4" t="n">
         <v>110.6944103624776</v>
@@ -27382,22 +27382,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>308.7961364195431</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>302.9448950264166</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>334.6816246749598</v>
       </c>
       <c r="H2" t="n">
-        <v>257.9707626592825</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>125.0511671392532</v>
+        <v>142.5609461292376</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>61.67768197200598</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -27439,7 +27439,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>270.3569762716835</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
@@ -27461,22 +27461,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>65.9392828457747</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>75.86029297830274</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>55.85006947617123</v>
       </c>
       <c r="H3" t="n">
-        <v>30.28937479326191</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>6.330402736600803</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>24.07847740710159</v>
       </c>
       <c r="S3" t="n">
-        <v>98.34511155165492</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>118.2093911793976</v>
       </c>
       <c r="U3" t="n">
         <v>224.6571770672012</v>
@@ -27540,13 +27540,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D4" t="n">
-        <v>149.0055665145194</v>
+        <v>145.2131310484866</v>
       </c>
       <c r="E4" t="n">
-        <v>146.9746241731992</v>
+        <v>66.80148344432808</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1590214098045</v>
+        <v>65.98588068093341</v>
       </c>
       <c r="G4" t="n">
         <v>167.8895889301081</v>
@@ -27561,7 +27561,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>93.21800694091144</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>203.3781209245332</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27616,13 +27616,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>286.8119549500715</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>335.3094394202322</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>257.9707626592825</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>94.04222636582162</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>142.7919764675495</v>
+        <v>142.7919764675493</v>
       </c>
       <c r="U5" t="n">
-        <v>171.3046228476736</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27679,7 +27679,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>290.6884584022983</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27710,10 +27710,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>30.28937479326169</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>6.330402736600576</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.52183903222036</v>
+        <v>24.07847740710159</v>
       </c>
       <c r="S6" t="n">
-        <v>88.78847317677352</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>118.2093911793978</v>
+        <v>118.2093911793976</v>
       </c>
       <c r="U6" t="n">
-        <v>154.0406747132118</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.91055076181294</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>87.16341220233147</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>145.2131310484861</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27789,13 +27789,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>157.841636542884</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>73.58540606853254</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>8.665704198907846</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
-        <v>159.9367382046809</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>324.5869397687283</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27919,7 +27919,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.897571930064885</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -27992,13 +27992,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>167.766076517585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>135.1354836983042</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28056,10 +28056,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="C11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="D11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="E11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="H11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="I11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.751539524688</v>
       </c>
       <c r="S11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="T11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="U11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="V11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="W11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="X11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y11" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="C12" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="D12" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="E12" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G12" t="n">
-        <v>124.9853063960512</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>108.4800453703011</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>124.9853063960512</v>
+        <v>26.32563625654041</v>
       </c>
       <c r="W12" t="n">
-        <v>26.32563625654117</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="C13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="D13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="E13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="H13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="I13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="J13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="K13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="L13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="N13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="O13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="P13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="R13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="S13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="T13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="U13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="V13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="W13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="X13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.9853063960512</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="C14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="D14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="E14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="F14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="G14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="H14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="I14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="J14" t="n">
-        <v>63.78250350120408</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>124.9853063960513</v>
+        <v>56.54873662984068</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,7 +28360,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>117.751539524688</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="S14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="T14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="U14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="V14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="W14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="X14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="Y14" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>124.9853063960513</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="H15" t="n">
-        <v>74.7796575425931</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I15" t="n">
         <v>79.43615441375565</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>81.95027155521963</v>
+        <v>48.24988372751093</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="V15" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="W15" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="X15" t="n">
-        <v>124.9853063960513</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>124.9853063960513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="C16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="D16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="E16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="F16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="G16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="I16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="J16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="K16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="L16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="N16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="O16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="P16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="R16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="S16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="T16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="U16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="V16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="W16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="X16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.9853063960513</v>
+        <v>124.9853063960514</v>
       </c>
     </row>
     <row r="17">
@@ -28588,19 +28588,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>30.2185813856434</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8179408160243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.4800453703011</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.43615441375565</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,16 +28694,16 @@
         <v>165.1488250350689</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9589834500447</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U18" t="n">
         <v>221.2857012474618</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>98.85227058083152</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>221.2857012474618</v>
       </c>
       <c r="U19" t="n">
-        <v>221.2857012474618</v>
+        <v>88.07233861193228</v>
       </c>
       <c r="V19" t="n">
         <v>221.2857012474618</v>
@@ -28788,7 +28788,7 @@
         <v>221.2857012474618</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.53531123223866</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28822,7 +28822,7 @@
         <v>221.2857012474618</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>30.21858138564341</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>30.2185813856434</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>81.95027155521963</v>
       </c>
       <c r="S21" t="n">
-        <v>165.1488250350689</v>
+        <v>161.5526562632815</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9589834500447</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U21" t="n">
         <v>221.2857012474618</v>
@@ -29007,13 +29007,13 @@
         <v>165.6533123090692</v>
       </c>
       <c r="S22" t="n">
-        <v>219.3583308622541</v>
+        <v>86.14496822672456</v>
       </c>
       <c r="T22" t="n">
         <v>221.2857012474618</v>
       </c>
       <c r="U22" t="n">
-        <v>88.07233861193228</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="V22" t="n">
         <v>221.2857012474618</v>
@@ -29056,10 +29056,10 @@
         <v>221.2857012474618</v>
       </c>
       <c r="I23" t="n">
-        <v>221.2857012474618</v>
+        <v>190.4337462753828</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>164.6046980804954</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,10 +29080,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.21858138564347</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>221.2857012474618</v>
+        <v>117.751539524688</v>
       </c>
       <c r="S23" t="n">
         <v>221.2857012474618</v>
@@ -29171,7 +29171,7 @@
         <v>197.5551522218321</v>
       </c>
       <c r="U24" t="n">
-        <v>13.22790286719612</v>
+        <v>217.6895324756752</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29244,10 +29244,10 @@
         <v>165.6533123090692</v>
       </c>
       <c r="S25" t="n">
-        <v>219.3583308622541</v>
+        <v>86.14496822672456</v>
       </c>
       <c r="T25" t="n">
-        <v>88.0723386119322</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="U25" t="n">
         <v>221.2857012474618</v>
@@ -29369,10 +29369,10 @@
         <v>135.8179408160243</v>
       </c>
       <c r="H27" t="n">
-        <v>53.0897186585794</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>79.43615441375565</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>149.6454821728623</v>
       </c>
       <c r="U27" t="n">
-        <v>149.6454821728623</v>
+        <v>14.81900104738489</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J28" t="n">
+        <v>76.67201403407377</v>
+      </c>
+      <c r="K28" t="n">
+        <v>82.15364530743534</v>
+      </c>
+      <c r="L28" t="n">
         <v>149.6454821728623</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>149.6454821728623</v>
       </c>
-      <c r="N28" t="n">
+      <c r="Q28" t="n">
         <v>149.6454821728623</v>
-      </c>
-      <c r="O28" t="n">
-        <v>93.47523069645922</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>65.35042864504989</v>
       </c>
       <c r="R28" t="n">
         <v>149.6454821728623</v>
@@ -29697,22 +29697,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6454821728622</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>149.6454821728622</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>149.6454821728622</v>
       </c>
-      <c r="O31" t="n">
-        <v>16.80321666238667</v>
-      </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>149.6454821728622</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.35042864504989</v>
+        <v>82.15364530743554</v>
       </c>
       <c r="R31" t="n">
         <v>149.6454821728622</v>
@@ -29776,25 +29776,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="M32" t="n">
-        <v>190.9957505113705</v>
+        <v>162.5564572960454</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>200.8023516828875</v>
-      </c>
-      <c r="O32" t="n">
-        <v>54.61151894287485</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>117.751539524688</v>
       </c>
       <c r="S32" t="n">
         <v>200.8023516828875</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.8179408160243</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.10906023037249</v>
+        <v>81.95027155521963</v>
       </c>
       <c r="S33" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.6037333095606</v>
       </c>
       <c r="U33" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29940,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>5.82153510008051</v>
       </c>
       <c r="O34" t="n">
-        <v>5.821535100080894</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30004,22 +30004,22 @@
         <v>200.8023516828875</v>
       </c>
       <c r="I35" t="n">
-        <v>190.4337462753828</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>172.3630584675633</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>172.9250627035503</v>
+        <v>190.9957505113706</v>
       </c>
       <c r="N35" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30074,10 +30074,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H36" t="n">
         <v>108.4800453703011</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>81.95027155521963</v>
+        <v>54.99885264294741</v>
       </c>
       <c r="S36" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5551522218321</v>
       </c>
       <c r="U36" t="n">
-        <v>87.22392895223322</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.821535100081107</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>65.35042864504989</v>
       </c>
       <c r="R37" t="n">
-        <v>165.6533123090692</v>
+        <v>171.4748474091503</v>
       </c>
       <c r="S37" t="n">
         <v>200.8023516828875</v>
@@ -30220,31 +30220,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="C38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="D38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="E38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="F38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="G38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="H38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="I38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="J38" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>162.5564572960457</v>
+        <v>162.5564572960455</v>
       </c>
       <c r="R38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="S38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="T38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="U38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="V38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="W38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="X38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="Y38" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
     </row>
     <row r="39">
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>81.95027155521963</v>
+        <v>33.35625969142873</v>
       </c>
       <c r="S39" t="n">
-        <v>113.3076137102225</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U39" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>167.7174979698011</v>
       </c>
       <c r="H40" t="n">
-        <v>160.10402692546</v>
+        <v>165.9255620255414</v>
       </c>
       <c r="I40" t="n">
         <v>148.5833022819894</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.821535100081107</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>165.6533123090692</v>
       </c>
       <c r="S40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="T40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="U40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="V40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="W40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="X40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828874</v>
       </c>
     </row>
     <row r="41">
@@ -30481,28 +30481,28 @@
         <v>200.8023516828875</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>162.5564572960457</v>
+      </c>
+      <c r="Q41" t="n">
         <v>200.8023516828875</v>
-      </c>
-      <c r="K41" t="n">
-        <v>162.5564572960464</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>200.8023516828875</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>87.22392895223291</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>108.4800453703011</v>
       </c>
       <c r="I42" t="n">
-        <v>79.43615441375566</v>
+        <v>79.43615441375565</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>81.95027155521964</v>
+        <v>81.95027155521963</v>
       </c>
       <c r="S42" t="n">
         <v>165.1488250350689</v>
@@ -30593,7 +30593,7 @@
         <v>197.5551522218321</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>87.22392895223277</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J43" t="n">
-        <v>82.49354913415493</v>
+        <v>76.67201403407377</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.3504286450499</v>
+        <v>71.17196374513097</v>
       </c>
       <c r="R43" t="n">
         <v>165.6533123090692</v>
@@ -30718,7 +30718,7 @@
         <v>200.8023516828874</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,25 +30727,25 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>162.5564572960468</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>200.8023516828874</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.8023516828874</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>200.8023516828874</v>
+        <v>166.2362195482308</v>
       </c>
       <c r="S44" t="n">
-        <v>200.8023516828874</v>
+        <v>197.1225894307024</v>
       </c>
       <c r="T44" t="n">
         <v>200.8023516828874</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8179408160243</v>
+        <v>87.22392895223334</v>
       </c>
       <c r="H45" t="n">
         <v>108.4800453703011</v>
       </c>
       <c r="I45" t="n">
-        <v>79.43615441375566</v>
+        <v>79.43615441375565</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.10906023037273</v>
+        <v>81.95027155521963</v>
       </c>
       <c r="S45" t="n">
         <v>165.1488250350689</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U45" t="n">
-        <v>200.8023516828874</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30876,10 +30876,10 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J46" t="n">
-        <v>76.67201403407378</v>
+        <v>82.49354913415522</v>
       </c>
       <c r="K46" t="n">
-        <v>5.821535100081494</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.3504286450499</v>
+        <v>65.35042864504989</v>
       </c>
       <c r="R46" t="n">
         <v>165.6533123090692</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3836472756044664</v>
+        <v>0.3836472756044667</v>
       </c>
       <c r="H41" t="n">
-        <v>3.929027661284243</v>
+        <v>3.929027661284246</v>
       </c>
       <c r="I41" t="n">
-        <v>14.79056159274121</v>
+        <v>14.79056159274122</v>
       </c>
       <c r="J41" t="n">
-        <v>32.56158295783462</v>
+        <v>32.56158295783464</v>
       </c>
       <c r="K41" t="n">
-        <v>48.80137213417169</v>
+        <v>48.80137213417172</v>
       </c>
       <c r="L41" t="n">
-        <v>60.54241744495189</v>
+        <v>60.54241744495194</v>
       </c>
       <c r="M41" t="n">
-        <v>67.36510468248282</v>
+        <v>67.36510468248287</v>
       </c>
       <c r="N41" t="n">
-        <v>68.45514250429402</v>
+        <v>68.45514250429406</v>
       </c>
       <c r="O41" t="n">
-        <v>64.6402499075021</v>
+        <v>64.64024990750214</v>
       </c>
       <c r="P41" t="n">
-        <v>55.16895779101682</v>
+        <v>55.16895779101687</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.42958973343185</v>
+        <v>41.42958973343188</v>
       </c>
       <c r="R41" t="n">
-        <v>24.09928317618909</v>
+        <v>24.0992831761891</v>
       </c>
       <c r="S41" t="n">
-        <v>8.742362292836788</v>
+        <v>8.742362292836795</v>
       </c>
       <c r="T41" t="n">
-        <v>1.679415948958553</v>
+        <v>1.679415948958554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03069178204835731</v>
+        <v>0.03069178204835733</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2052693890179937</v>
+        <v>0.2052693890179939</v>
       </c>
       <c r="H42" t="n">
-        <v>1.982470151831676</v>
+        <v>1.982470151831678</v>
       </c>
       <c r="I42" t="n">
-        <v>7.067389051716011</v>
+        <v>7.067389051716017</v>
       </c>
       <c r="J42" t="n">
-        <v>19.39345574051142</v>
+        <v>19.39345574051143</v>
       </c>
       <c r="K42" t="n">
-        <v>33.14650480471699</v>
+        <v>33.14650480471702</v>
       </c>
       <c r="L42" t="n">
-        <v>44.56956624270078</v>
+        <v>44.56956624270082</v>
       </c>
       <c r="M42" t="n">
-        <v>52.01058159460305</v>
+        <v>52.01058159460308</v>
       </c>
       <c r="N42" t="n">
-        <v>53.38714692709653</v>
+        <v>53.38714692709657</v>
       </c>
       <c r="O42" t="n">
-        <v>48.83880941253993</v>
+        <v>48.83880941253997</v>
       </c>
       <c r="P42" t="n">
-        <v>39.19745025905882</v>
+        <v>39.19745025905885</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.20245744727934</v>
+        <v>26.20245744727936</v>
       </c>
       <c r="R42" t="n">
-        <v>12.74470820587158</v>
+        <v>12.74470820587159</v>
       </c>
       <c r="S42" t="n">
-        <v>3.812788870575451</v>
+        <v>3.812788870575453</v>
       </c>
       <c r="T42" t="n">
-        <v>0.827379686436562</v>
+        <v>0.8273796864365626</v>
       </c>
       <c r="U42" t="n">
         <v>0.01350456506697328</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1720909603070036</v>
+        <v>0.1720909603070037</v>
       </c>
       <c r="H43" t="n">
-        <v>1.530045083456815</v>
+        <v>1.530045083456816</v>
       </c>
       <c r="I43" t="n">
-        <v>5.175244515414255</v>
+        <v>5.175244515414259</v>
       </c>
       <c r="J43" t="n">
-        <v>12.16683089370515</v>
+        <v>12.16683089370516</v>
       </c>
       <c r="K43" t="n">
-        <v>19.99384066112278</v>
+        <v>19.99384066112279</v>
       </c>
       <c r="L43" t="n">
-        <v>25.58523240782489</v>
+        <v>25.5852324078249</v>
       </c>
       <c r="M43" t="n">
-        <v>26.97604025976057</v>
+        <v>26.97604025976059</v>
       </c>
       <c r="N43" t="n">
-        <v>26.33461031679812</v>
+        <v>26.33461031679814</v>
       </c>
       <c r="O43" t="n">
-        <v>24.32427500775721</v>
+        <v>24.32427500775723</v>
       </c>
       <c r="P43" t="n">
-        <v>20.81361941749432</v>
+        <v>20.81361941749433</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.41027123079828</v>
+        <v>14.41027123079829</v>
       </c>
       <c r="R43" t="n">
-        <v>7.737835360713087</v>
+        <v>7.737835360713093</v>
       </c>
       <c r="S43" t="n">
-        <v>2.999076099168416</v>
+        <v>2.999076099168418</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7352977394935607</v>
+        <v>0.7352977394935613</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009386779653109299</v>
+        <v>0.009386779653109306</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3836472756044664</v>
+        <v>0.3836472756044668</v>
       </c>
       <c r="H44" t="n">
-        <v>3.929027661284243</v>
+        <v>3.929027661284247</v>
       </c>
       <c r="I44" t="n">
-        <v>14.79056159274121</v>
+        <v>14.79056159274122</v>
       </c>
       <c r="J44" t="n">
-        <v>32.56158295783462</v>
+        <v>32.56158295783464</v>
       </c>
       <c r="K44" t="n">
-        <v>48.80137213417169</v>
+        <v>48.80137213417173</v>
       </c>
       <c r="L44" t="n">
-        <v>60.54241744495189</v>
+        <v>60.54241744495194</v>
       </c>
       <c r="M44" t="n">
-        <v>67.36510468248282</v>
+        <v>67.36510468248288</v>
       </c>
       <c r="N44" t="n">
-        <v>68.45514250429402</v>
+        <v>68.45514250429407</v>
       </c>
       <c r="O44" t="n">
-        <v>64.6402499075021</v>
+        <v>64.64024990750215</v>
       </c>
       <c r="P44" t="n">
-        <v>55.16895779101682</v>
+        <v>55.16895779101687</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.42958973343185</v>
+        <v>41.42958973343189</v>
       </c>
       <c r="R44" t="n">
-        <v>24.09928317618909</v>
+        <v>24.09928317618911</v>
       </c>
       <c r="S44" t="n">
-        <v>8.742362292836788</v>
+        <v>8.742362292836795</v>
       </c>
       <c r="T44" t="n">
-        <v>1.679415948958553</v>
+        <v>1.679415948958554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03069178204835731</v>
+        <v>0.03069178204835734</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2052693890179937</v>
+        <v>0.2052693890179939</v>
       </c>
       <c r="H45" t="n">
-        <v>1.982470151831676</v>
+        <v>1.982470151831678</v>
       </c>
       <c r="I45" t="n">
-        <v>7.067389051716011</v>
+        <v>7.067389051716018</v>
       </c>
       <c r="J45" t="n">
-        <v>19.39345574051142</v>
+        <v>19.39345574051143</v>
       </c>
       <c r="K45" t="n">
-        <v>33.14650480471699</v>
+        <v>33.14650480471702</v>
       </c>
       <c r="L45" t="n">
-        <v>44.56956624270078</v>
+        <v>44.56956624270082</v>
       </c>
       <c r="M45" t="n">
-        <v>52.01058159460305</v>
+        <v>52.01058159460309</v>
       </c>
       <c r="N45" t="n">
-        <v>53.38714692709653</v>
+        <v>53.38714692709657</v>
       </c>
       <c r="O45" t="n">
-        <v>48.83880941253993</v>
+        <v>48.83880941253997</v>
       </c>
       <c r="P45" t="n">
-        <v>39.19745025905882</v>
+        <v>39.19745025905885</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.20245744727934</v>
+        <v>26.20245744727936</v>
       </c>
       <c r="R45" t="n">
-        <v>12.74470820587158</v>
+        <v>12.74470820587159</v>
       </c>
       <c r="S45" t="n">
-        <v>3.812788870575451</v>
+        <v>3.812788870575454</v>
       </c>
       <c r="T45" t="n">
-        <v>0.827379686436562</v>
+        <v>0.8273796864365627</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01350456506697328</v>
+        <v>0.01350456506697329</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1720909603070036</v>
+        <v>0.1720909603070037</v>
       </c>
       <c r="H46" t="n">
-        <v>1.530045083456815</v>
+        <v>1.530045083456816</v>
       </c>
       <c r="I46" t="n">
-        <v>5.175244515414255</v>
+        <v>5.17524451541426</v>
       </c>
       <c r="J46" t="n">
-        <v>12.16683089370515</v>
+        <v>12.16683089370516</v>
       </c>
       <c r="K46" t="n">
-        <v>19.99384066112278</v>
+        <v>19.9938406611228</v>
       </c>
       <c r="L46" t="n">
-        <v>25.58523240782489</v>
+        <v>25.58523240782491</v>
       </c>
       <c r="M46" t="n">
-        <v>26.97604025976057</v>
+        <v>26.97604025976059</v>
       </c>
       <c r="N46" t="n">
-        <v>26.33461031679812</v>
+        <v>26.33461031679815</v>
       </c>
       <c r="O46" t="n">
-        <v>24.32427500775721</v>
+        <v>24.32427500775723</v>
       </c>
       <c r="P46" t="n">
-        <v>20.81361941749432</v>
+        <v>20.81361941749434</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.41027123079828</v>
+        <v>14.41027123079829</v>
       </c>
       <c r="R46" t="n">
-        <v>7.737835360713087</v>
+        <v>7.737835360713095</v>
       </c>
       <c r="S46" t="n">
-        <v>2.999076099168416</v>
+        <v>2.999076099168419</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7352977394935607</v>
+        <v>0.7352977394935614</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009386779653109299</v>
+        <v>0.009386779653109308</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>72.87427925283038</v>
       </c>
       <c r="N2" t="n">
-        <v>72.87427925283018</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="O2" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="P2" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34778,22 +34778,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.17314072887086</v>
+        <v>69.46583115751783</v>
       </c>
       <c r="N3" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="O3" t="n">
-        <v>69.46583115751761</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="L5" t="n">
-        <v>80.17314072887086</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="M5" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.87427925283019</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>72.87427925283036</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>76.93382191154276</v>
+        <v>76.93382191154296</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>80.17314072887109</v>
       </c>
       <c r="O6" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.17314072887086</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>58.85574402414761</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35495,10 +35495,10 @@
         <v>295.153005072921</v>
       </c>
       <c r="M12" t="n">
-        <v>361.1502229869546</v>
+        <v>384.9782177040801</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>84.372612241566</v>
       </c>
       <c r="O12" t="n">
         <v>319.4242831270053</v>
@@ -35507,7 +35507,7 @@
         <v>239.7736824156215</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.2006069586915</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.31329236197744</v>
+        <v>48.31329236197755</v>
       </c>
       <c r="K13" t="n">
-        <v>130.2047373393407</v>
+        <v>130.2047373393408</v>
       </c>
       <c r="L13" t="n">
-        <v>188.0316690328854</v>
+        <v>188.0316690328855</v>
       </c>
       <c r="M13" t="n">
-        <v>202.1587546527204</v>
+        <v>202.1587546527205</v>
       </c>
       <c r="N13" t="n">
-        <v>205.5169363774872</v>
+        <v>205.5169363774874</v>
       </c>
       <c r="O13" t="n">
-        <v>183.8777894337795</v>
+        <v>183.8777894337796</v>
       </c>
       <c r="P13" t="n">
-        <v>151.9209477122294</v>
+        <v>151.9209477122295</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.63487775100133</v>
+        <v>59.63487775100144</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.6848093244763</v>
+        <v>31.90230582327222</v>
       </c>
       <c r="K14" t="n">
-        <v>296.3103028353784</v>
+        <v>227.8737330691677</v>
       </c>
       <c r="L14" t="n">
         <v>265.0378259816828</v>
@@ -35656,7 +35656,7 @@
         <v>310.2716021184378</v>
       </c>
       <c r="N14" t="n">
-        <v>299.6182068860814</v>
+        <v>424.6035132821328</v>
       </c>
       <c r="O14" t="n">
         <v>236.3266822846127</v>
@@ -35668,7 +35668,7 @@
         <v>45.4891323921445</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>7.233766871363414</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>173.7949482977988</v>
       </c>
       <c r="L15" t="n">
         <v>295.153005072921</v>
@@ -35738,13 +35738,13 @@
         <v>423.8450469631422</v>
       </c>
       <c r="O15" t="n">
-        <v>319.4242831270053</v>
+        <v>182.796157680666</v>
       </c>
       <c r="P15" t="n">
         <v>239.7736824156215</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.16682285145949</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.31329236197755</v>
+        <v>48.31329236197762</v>
       </c>
       <c r="K16" t="n">
         <v>130.2047373393408</v>
       </c>
       <c r="L16" t="n">
-        <v>188.0316690328855</v>
+        <v>188.0316690328856</v>
       </c>
       <c r="M16" t="n">
         <v>202.1587546527205</v>
@@ -35817,13 +35817,13 @@
         <v>205.5169363774874</v>
       </c>
       <c r="O16" t="n">
-        <v>183.8777894337796</v>
+        <v>183.8777894337797</v>
       </c>
       <c r="P16" t="n">
         <v>151.9209477122295</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.63487775100144</v>
+        <v>59.6348777510015</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>31.90230582327222</v>
       </c>
       <c r="K17" t="n">
-        <v>201.5435778249704</v>
+        <v>171.324996439327</v>
       </c>
       <c r="L17" t="n">
         <v>265.0378259816828</v>
@@ -35896,7 +35896,7 @@
         <v>299.6182068860814</v>
       </c>
       <c r="O17" t="n">
-        <v>236.3266822846127</v>
+        <v>266.5452636702561</v>
       </c>
       <c r="P17" t="n">
         <v>164.387443427971</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.16682285145946</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>295.153005072921</v>
@@ -35981,7 +35981,7 @@
         <v>239.7736824156215</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>37.16682285145949</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>30.85195497207899</v>
       </c>
       <c r="J20" t="n">
-        <v>31.90230582327222</v>
+        <v>62.12088720891563</v>
       </c>
       <c r="K20" t="n">
         <v>171.324996439327</v>
@@ -36133,7 +36133,7 @@
         <v>299.6182068860814</v>
       </c>
       <c r="O20" t="n">
-        <v>266.5452636702561</v>
+        <v>236.3266822846127</v>
       </c>
       <c r="P20" t="n">
         <v>164.387443427971</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>26.86144649453658</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>173.7949482977988</v>
       </c>
       <c r="L21" t="n">
-        <v>224.119220965689</v>
+        <v>295.153005072921</v>
       </c>
       <c r="M21" t="n">
         <v>397.7631648206352</v>
       </c>
       <c r="N21" t="n">
-        <v>423.8450469631422</v>
+        <v>152.1548680635749</v>
       </c>
       <c r="O21" t="n">
         <v>319.4242831270053</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>30.85195497207899</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>31.90230582327222</v>
+        <v>196.5070039037676</v>
       </c>
       <c r="K23" t="n">
         <v>171.324996439327</v>
@@ -36376,10 +36376,10 @@
         <v>164.387443427971</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.70771377778797</v>
+        <v>45.4891323921445</v>
       </c>
       <c r="R23" t="n">
-        <v>103.5341617227738</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>24.16311181675935</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>173.7949482977988</v>
+        <v>37.16682285145878</v>
       </c>
       <c r="L24" t="n">
         <v>295.153005072921</v>
@@ -36449,13 +36449,13 @@
         <v>423.8450469631422</v>
       </c>
       <c r="O24" t="n">
-        <v>74.59555072197455</v>
+        <v>319.4242831270053</v>
       </c>
       <c r="P24" t="n">
         <v>239.7736824156215</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.2006069586915</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.9734681387885</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>5.219430943289442</v>
+        <v>87.37307625072478</v>
       </c>
       <c r="L28" t="n">
-        <v>63.04636263683419</v>
+        <v>212.6918448096965</v>
       </c>
       <c r="M28" t="n">
-        <v>226.8189304295314</v>
+        <v>77.17344825666916</v>
       </c>
       <c r="N28" t="n">
-        <v>230.1771121542983</v>
+        <v>80.53162998143604</v>
       </c>
       <c r="O28" t="n">
-        <v>152.3677137341875</v>
+        <v>58.89248303772828</v>
       </c>
       <c r="P28" t="n">
-        <v>26.93564131617817</v>
+        <v>176.5811234890404</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.29505352781239</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>181.5477879961344</v>
+        <v>181.5477879961345</v>
       </c>
       <c r="K29" t="n">
         <v>320.9704786121893</v>
       </c>
       <c r="L29" t="n">
-        <v>414.6833081545449</v>
+        <v>414.683308154545</v>
       </c>
       <c r="M29" t="n">
-        <v>459.9170842912999</v>
+        <v>459.9170842913001</v>
       </c>
       <c r="N29" t="n">
-        <v>449.2636890589436</v>
+        <v>449.2636890589437</v>
       </c>
       <c r="O29" t="n">
-        <v>385.9721644574749</v>
+        <v>385.972164457475</v>
       </c>
       <c r="P29" t="n">
         <v>314.0329256008332</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.1346145650067</v>
+        <v>195.1346145650068</v>
       </c>
       <c r="R29" t="n">
-        <v>31.89394264817422</v>
+        <v>31.89394264817427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,22 +36993,22 @@
         <v>5.219430943289442</v>
       </c>
       <c r="L31" t="n">
-        <v>212.6918448096964</v>
+        <v>63.04636263683419</v>
       </c>
       <c r="M31" t="n">
-        <v>226.8189304295313</v>
+        <v>226.8189304295314</v>
       </c>
       <c r="N31" t="n">
-        <v>230.1771121542982</v>
+        <v>80.53162998143604</v>
       </c>
       <c r="O31" t="n">
-        <v>75.69569970011496</v>
+        <v>208.5379652105905</v>
       </c>
       <c r="P31" t="n">
-        <v>26.93564131617817</v>
+        <v>176.5811234890404</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.80321666238565</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.36860540750469</v>
+        <v>10.36860540750475</v>
       </c>
       <c r="J32" t="n">
         <v>31.90230582327222</v>
@@ -37072,16 +37072,16 @@
         <v>171.324996439327</v>
       </c>
       <c r="L32" t="n">
-        <v>265.0378259816828</v>
+        <v>465.8401776645703</v>
       </c>
       <c r="M32" t="n">
-        <v>501.2673526298083</v>
+        <v>472.8280594144832</v>
       </c>
       <c r="N32" t="n">
-        <v>500.4205585689689</v>
+        <v>299.6182068860814</v>
       </c>
       <c r="O32" t="n">
-        <v>290.9382012274876</v>
+        <v>236.3266822846127</v>
       </c>
       <c r="P32" t="n">
         <v>164.387443427971</v>
@@ -37090,10 +37090,10 @@
         <v>45.4891323921445</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.05081215819958</v>
       </c>
       <c r="S32" t="n">
-        <v>3.67976225218505</v>
+        <v>3.679762252185107</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>77.17344825666916</v>
       </c>
       <c r="N34" t="n">
-        <v>80.53162998143604</v>
+        <v>86.35316508151655</v>
       </c>
       <c r="O34" t="n">
-        <v>64.71401813780918</v>
+        <v>58.89248303772828</v>
       </c>
       <c r="P34" t="n">
         <v>26.93564131617817</v>
@@ -37300,22 +37300,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.36860540750467</v>
       </c>
       <c r="J35" t="n">
         <v>31.90230582327222</v>
       </c>
       <c r="K35" t="n">
-        <v>171.324996439327</v>
+        <v>343.6880549068903</v>
       </c>
       <c r="L35" t="n">
         <v>265.0378259816828</v>
       </c>
       <c r="M35" t="n">
-        <v>483.1966648219881</v>
+        <v>501.2673526298084</v>
       </c>
       <c r="N35" t="n">
-        <v>500.4205585689689</v>
+        <v>299.6182068860814</v>
       </c>
       <c r="O35" t="n">
         <v>236.3266822846127</v>
@@ -37467,7 +37467,7 @@
         <v>5.219430943289442</v>
       </c>
       <c r="L37" t="n">
-        <v>68.8678977369153</v>
+        <v>63.04636263683419</v>
       </c>
       <c r="M37" t="n">
         <v>77.17344825666916</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.821535100081078</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.36860540750467</v>
+        <v>10.36860540750464</v>
       </c>
       <c r="J38" t="n">
-        <v>232.7046575061597</v>
+        <v>31.90230582327222</v>
       </c>
       <c r="K38" t="n">
         <v>171.324996439327</v>
@@ -37552,7 +37552,7 @@
         <v>310.2716021184378</v>
       </c>
       <c r="N38" t="n">
-        <v>299.6182068860814</v>
+        <v>500.4205585689688</v>
       </c>
       <c r="O38" t="n">
         <v>236.3266822846127</v>
@@ -37561,13 +37561,13 @@
         <v>164.387443427971</v>
       </c>
       <c r="Q38" t="n">
-        <v>208.0455896881902</v>
+        <v>208.04558968819</v>
       </c>
       <c r="R38" t="n">
-        <v>83.05081215819949</v>
+        <v>83.05081215819946</v>
       </c>
       <c r="S38" t="n">
-        <v>3.679762252185022</v>
+        <v>3.679762252184993</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>26.86144649453658</v>
+        <v>26.86144649453578</v>
       </c>
       <c r="K39" t="n">
         <v>173.7949482977988</v>
@@ -37631,7 +37631,7 @@
         <v>397.7631648206352</v>
       </c>
       <c r="N39" t="n">
-        <v>423.8450469631416</v>
+        <v>423.8450469631422</v>
       </c>
       <c r="O39" t="n">
         <v>319.4242831270053</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.821535100081344</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>5.219430943289442</v>
       </c>
       <c r="L40" t="n">
-        <v>68.8678977369153</v>
+        <v>63.04636263683419</v>
       </c>
       <c r="M40" t="n">
         <v>77.17344825666916</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.36860540750465</v>
+        <v>10.36860540750467</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7046575061597</v>
+        <v>31.90230582327222</v>
       </c>
       <c r="K41" t="n">
-        <v>333.8814537353734</v>
+        <v>171.324996439327</v>
       </c>
       <c r="L41" t="n">
-        <v>265.0378259816827</v>
+        <v>265.0378259816828</v>
       </c>
       <c r="M41" t="n">
-        <v>310.2716021184377</v>
+        <v>310.2716021184378</v>
       </c>
       <c r="N41" t="n">
-        <v>299.6182068860813</v>
+        <v>299.6182068860814</v>
       </c>
       <c r="O41" t="n">
         <v>236.3266822846127</v>
       </c>
       <c r="P41" t="n">
-        <v>164.387443427971</v>
+        <v>326.9439007240167</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.48913239214447</v>
+        <v>246.291484075032</v>
       </c>
       <c r="R41" t="n">
-        <v>83.05081215819948</v>
+        <v>83.05081215819949</v>
       </c>
       <c r="S41" t="n">
-        <v>3.679762252185014</v>
+        <v>3.679762252185022</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>26.86144649453657</v>
+        <v>26.86144649453658</v>
       </c>
       <c r="K42" t="n">
         <v>173.7949482977988</v>
@@ -37865,7 +37865,7 @@
         <v>295.153005072921</v>
       </c>
       <c r="M42" t="n">
-        <v>397.7631648206351</v>
+        <v>397.7631648206352</v>
       </c>
       <c r="N42" t="n">
         <v>423.8450469631422</v>
@@ -37877,7 +37877,7 @@
         <v>239.7736824156215</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.2006069586914</v>
+        <v>108.2006069586915</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.821535100081149</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.219430943289428</v>
+        <v>5.219430943289442</v>
       </c>
       <c r="L43" t="n">
-        <v>63.04636263683417</v>
+        <v>63.04636263683419</v>
       </c>
       <c r="M43" t="n">
-        <v>77.17344825666913</v>
+        <v>77.17344825666916</v>
       </c>
       <c r="N43" t="n">
-        <v>80.53162998143601</v>
+        <v>80.53162998143604</v>
       </c>
       <c r="O43" t="n">
-        <v>58.89248303772827</v>
+        <v>58.89248303772828</v>
       </c>
       <c r="P43" t="n">
-        <v>26.93564131617816</v>
+        <v>26.93564131617817</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.821535100081078</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.3686054075046</v>
+        <v>10.36860540750461</v>
       </c>
       <c r="J44" t="n">
-        <v>31.9023058232722</v>
+        <v>232.7046575061596</v>
       </c>
       <c r="K44" t="n">
         <v>171.324996439327</v>
       </c>
       <c r="L44" t="n">
-        <v>265.0378259816827</v>
+        <v>265.0378259816828</v>
       </c>
       <c r="M44" t="n">
-        <v>472.8280594144845</v>
+        <v>310.2716021184378</v>
       </c>
       <c r="N44" t="n">
-        <v>299.6182068860813</v>
+        <v>299.6182068860814</v>
       </c>
       <c r="O44" t="n">
-        <v>236.3266822846127</v>
+        <v>437.1290339675002</v>
       </c>
       <c r="P44" t="n">
         <v>164.387443427971</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.2914840750319</v>
+        <v>45.4891323921445</v>
       </c>
       <c r="R44" t="n">
-        <v>83.05081215819942</v>
+        <v>48.48468002354284</v>
       </c>
       <c r="S44" t="n">
-        <v>3.679762252184958</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>26.86144649453657</v>
+        <v>26.86144649453659</v>
       </c>
       <c r="K45" t="n">
         <v>173.7949482977988</v>
@@ -38102,7 +38102,7 @@
         <v>295.153005072921</v>
       </c>
       <c r="M45" t="n">
-        <v>397.7631648206351</v>
+        <v>397.7631648206352</v>
       </c>
       <c r="N45" t="n">
         <v>423.8450469631422</v>
@@ -38114,7 +38114,7 @@
         <v>239.7736824156215</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.2006069586914</v>
+        <v>108.2006069586915</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.821535100081444</v>
       </c>
       <c r="K46" t="n">
-        <v>11.04096604337092</v>
+        <v>5.219430943289446</v>
       </c>
       <c r="L46" t="n">
-        <v>63.04636263683417</v>
+        <v>63.04636263683419</v>
       </c>
       <c r="M46" t="n">
-        <v>77.17344825666913</v>
+        <v>77.17344825666916</v>
       </c>
       <c r="N46" t="n">
-        <v>80.53162998143601</v>
+        <v>80.53162998143604</v>
       </c>
       <c r="O46" t="n">
-        <v>58.89248303772827</v>
+        <v>58.89248303772829</v>
       </c>
       <c r="P46" t="n">
-        <v>26.93564131617816</v>
+        <v>26.93564131617818</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
